--- a/data/rawcitydata2的副本.xlsx
+++ b/data/rawcitydata2的副本.xlsx
@@ -10,7 +10,7 @@
     <sheet name="JSON" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JSON!$A$1:$G$299</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">JSON!$A$1:$H$299</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -941,12 +941,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.000000_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000000_);[Red]\(0.00000000\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -1049,6 +1050,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1064,9 +1073,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,6 +1103,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1090,23 +1121,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,29 +1144,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,7 +1159,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,25 +1182,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,7 +1248,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,103 +1350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,31 +1362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,29 +1387,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,17 +1426,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1458,180 +1465,177 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1650,25 +1654,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,10 +1687,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,7 +1702,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2084,7 +2091,7 @@
   <dimension ref="A1:H299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K266" sqref="K266"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -2094,9 +2101,10 @@
     <col min="3" max="3" width="13.7232142857143" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.2053571428571" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.0625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="18.8392857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.4017857142857" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="6" max="6" width="18.8392857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.8392857142857" style="5" customWidth="1"/>
+    <col min="8" max="8" width="33.4017857142857" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2118,10 +2126,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2135,19 +2143,19 @@
       <c r="C2" s="2">
         <v>34.619702</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>7056699</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="14">
         <v>5128.4</v>
       </c>
       <c r="F2" s="1">
         <v>49273.5045</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="5">
         <v>463.159556313993</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>862.318071913267</v>
       </c>
     </row>
@@ -2161,19 +2169,19 @@
       <c r="C3" s="2">
         <v>34.773196</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>2034872</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="14">
         <v>1450.71</v>
       </c>
       <c r="F3" s="1">
         <v>9334.8623</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="5">
         <v>193.87118902439</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>804.159342666694</v>
       </c>
     </row>
@@ -2187,7 +2195,7 @@
       <c r="C4" s="2">
         <v>33.58038</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>2367490</v>
       </c>
       <c r="E4" s="4">
@@ -2196,10 +2204,10 @@
       <c r="F4" s="1">
         <v>18086.374</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="5">
         <v>904.658005349637</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>487.197407713324</v>
       </c>
     </row>
@@ -2213,19 +2221,19 @@
       <c r="C5" s="2">
         <v>34.03732</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>4379998</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="14">
         <v>3449.2</v>
       </c>
       <c r="F5" s="1">
         <v>17700.5648</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <v>876.525515309185</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>420.702191812594</v>
       </c>
     </row>
@@ -2239,19 +2247,19 @@
       <c r="C6" s="2">
         <v>32.990218</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>9713112</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="14">
         <v>3925.86</v>
       </c>
       <c r="F6" s="1">
         <v>27039.15375</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <v>366.408087819231</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>618.928591442385</v>
       </c>
     </row>
@@ -2265,19 +2273,19 @@
       <c r="C7" s="2">
         <v>32.148624</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>6234401</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="14">
         <v>2805.68</v>
       </c>
       <c r="F7" s="1">
         <v>16123.60555</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
         <v>331.564165292772</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>485.490148555787</v>
       </c>
     </row>
@@ -2291,19 +2299,19 @@
       <c r="C8" s="2">
         <v>35.069057</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>727265</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="14">
         <v>703.16</v>
       </c>
       <c r="F8" s="1">
         <v>4692.7666</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="5">
         <v>376.62610046608</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>1295.2955230673</v>
       </c>
     </row>
@@ -2317,19 +2325,19 @@
       <c r="C9" s="2">
         <v>35.762731</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>3772088</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="14">
         <v>1649.99</v>
       </c>
       <c r="F9" s="1">
         <v>21785.1192</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="5">
         <v>900.68958930277</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>676.379856847617</v>
       </c>
     </row>
@@ -2343,19 +2351,19 @@
       <c r="C10" s="2">
         <v>33.014038</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>7008427</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="14">
         <v>2859.27</v>
       </c>
       <c r="F10" s="1">
         <v>36005.74965</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="5">
         <v>465.212545635579</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>528.384517726553</v>
       </c>
     </row>
@@ -2369,19 +2377,19 @@
       <c r="C11" s="2">
         <v>35.748329</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>1565973</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="14">
         <v>980.97</v>
       </c>
       <c r="F11" s="1">
         <v>10126.77895</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
         <v>717.677818515124</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>609.732203839057</v>
       </c>
     </row>
@@ -2395,19 +2403,19 @@
       <c r="C12" s="2">
         <v>34.746303</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>12600574</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="14">
         <v>12003</v>
       </c>
       <c r="F12" s="1">
         <v>128651.0538</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="5">
         <v>1692.26081117378</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>404.607181537949</v>
       </c>
     </row>
@@ -2421,19 +2429,19 @@
       <c r="C13" s="2">
         <v>35.215726</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>3521078</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="15">
         <v>2123.6</v>
       </c>
       <c r="F13" s="1">
         <v>18310.10845</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="5">
         <v>864.917219356424</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>1147.32953475231</v>
       </c>
     </row>
@@ -2447,19 +2455,19 @@
       <c r="C14" s="2">
         <v>34.798083</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>4824016</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="14">
         <v>2371.83</v>
       </c>
       <c r="F14" s="1">
         <v>25935.86055</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="5">
         <v>773.079487179487</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>504.908446220851</v>
       </c>
     </row>
@@ -2473,19 +2481,19 @@
       <c r="C15" s="2">
         <v>36.098779</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <v>5477614</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="14">
         <v>2300.5</v>
       </c>
       <c r="F15" s="1">
         <v>28937.72445</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="5">
         <v>745.050870511426</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>915.089328406868</v>
       </c>
     </row>
@@ -2499,19 +2507,19 @@
       <c r="C16" s="2">
         <v>35.303589</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <v>6251929</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="14">
         <v>3014.51</v>
       </c>
       <c r="F16" s="1">
         <v>29487.95575</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="5">
         <v>754.062115546979</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <v>865.889647073654</v>
       </c>
     </row>
@@ -2525,19 +2533,19 @@
       <c r="C17" s="2">
         <v>34.415165</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <v>7816831</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="14">
         <v>2925.33</v>
       </c>
       <c r="F17" s="1">
         <v>32435.9106</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="5">
         <v>730.271954409567</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>607.573846369469</v>
       </c>
     </row>
@@ -2551,19 +2559,19 @@
       <c r="C18" s="2">
         <v>33.766554</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <v>4987137</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="14">
         <v>2455.84</v>
       </c>
       <c r="F18" s="1">
         <v>20469.60255</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="5">
         <v>632.724816036539</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <v>823.424571633331</v>
       </c>
     </row>
@@ -2577,19 +2585,19 @@
       <c r="C19" s="2">
         <v>33.634652</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="8">
         <v>9026015</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="14">
         <v>3267.19</v>
       </c>
       <c r="F19" s="1">
         <v>26770.3597</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="5">
         <v>754.620433074158</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="6">
         <v>383.886765079472</v>
       </c>
     </row>
@@ -2603,19 +2611,19 @@
       <c r="C20" s="2">
         <v>23.354152</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <v>5502031</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="14">
         <v>2730.58</v>
       </c>
       <c r="F20" s="1">
         <v>71718.6275</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="5">
         <v>2502.06048203729</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="6">
         <v>776.360333701997</v>
       </c>
     </row>
@@ -2632,16 +2640,16 @@
       <c r="D21" s="3">
         <v>9498863</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="14">
         <v>10816.47</v>
       </c>
       <c r="F21" s="1">
         <v>143092.9767</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="5">
         <v>2501.01711427067</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="6">
         <v>649.612211747455</v>
       </c>
     </row>
@@ -2655,19 +2663,19 @@
       <c r="C22" s="2">
         <v>23.047747</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="8">
         <v>4113594</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="16">
         <v>2311.65</v>
       </c>
       <c r="F22" s="1">
         <v>34663.01175</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="5">
         <v>276.246994829091</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="6">
         <v>780.571453290939</v>
       </c>
     </row>
@@ -2681,7 +2689,7 @@
       <c r="C23" s="2">
         <v>23.112368</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <v>6042852</v>
       </c>
       <c r="E23" s="4">
@@ -2690,10 +2698,10 @@
       <c r="F23" s="1">
         <v>108053.1443</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="5">
         <v>532.550630122499</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="6">
         <v>1008.77163478051</v>
       </c>
     </row>
@@ -2710,16 +2718,16 @@
       <c r="D24" s="3">
         <v>17560061</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="14">
         <v>27670.24</v>
       </c>
       <c r="F24" s="1">
         <v>197931.2884</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="5">
         <v>8793.22033049574</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="6">
         <v>355.613467754526</v>
       </c>
     </row>
@@ -2742,10 +2750,10 @@
       <c r="F25" s="1">
         <v>60244.7248</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="5">
         <v>1405.29089861751</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="6">
         <v>545.403137331488</v>
       </c>
     </row>
@@ -2759,7 +2767,7 @@
       <c r="C26" s="2">
         <v>21.270108</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="8">
         <v>6981236</v>
       </c>
       <c r="E26" s="4">
@@ -2768,10 +2776,10 @@
       <c r="F26" s="1">
         <v>45469.7563</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="5">
         <v>526.369298047199</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="6">
         <v>685.927772867732</v>
       </c>
     </row>
@@ -2785,19 +2793,19 @@
       <c r="C27" s="2">
         <v>22.578948</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="8">
         <v>4798090</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="14">
         <v>3200.95</v>
       </c>
       <c r="F27" s="1">
         <v>59800.301</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="5">
         <v>504.690228252866</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="6">
         <v>920.483918836595</v>
       </c>
     </row>
@@ -2811,19 +2819,19 @@
       <c r="C28" s="2">
         <v>21.856853</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="8">
         <v>2602959</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="14">
         <v>1360.44</v>
       </c>
       <c r="F28" s="1">
         <v>23093.9099</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="5">
         <v>327.169306184012</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="6">
         <v>986.914527652818</v>
       </c>
     </row>
@@ -2837,19 +2845,19 @@
       <c r="C29" s="2">
         <v>21.662728</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="8">
         <v>6174050</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="14">
         <v>3279.31</v>
       </c>
       <c r="F29" s="1">
         <v>30160.14995</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="5">
         <v>540.256387819391</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="6">
         <v>376.994855625116</v>
       </c>
     </row>
@@ -2863,19 +2871,19 @@
       <c r="C30" s="2">
         <v>24.810977</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="8">
         <v>2855131</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="14">
         <v>1353.49</v>
       </c>
       <c r="F30" s="1">
         <v>19474.4911</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="5">
         <v>155.060609352088</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="6">
         <v>1065.79213736341</v>
       </c>
     </row>
@@ -2889,19 +2897,19 @@
       <c r="C31" s="2">
         <v>22.787204</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>2672819</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="14">
         <v>1123.81</v>
       </c>
       <c r="F31" s="1">
         <v>30811.233</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="5">
         <v>549.39753340185</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="6">
         <v>538.683585303566</v>
       </c>
     </row>
@@ -2915,19 +2923,19 @@
       <c r="C32" s="2">
         <v>23.550968</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="8">
         <v>5577814</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="14">
         <v>2102.14</v>
       </c>
       <c r="F32" s="1">
         <v>53409.60565</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="5">
         <v>1059.21268515002</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="6">
         <v>747.16241544331</v>
       </c>
     </row>
@@ -2941,7 +2949,7 @@
       <c r="C33" s="2">
         <v>22.915163</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="8">
         <v>2383350</v>
       </c>
       <c r="E33" s="4">
@@ -2950,10 +2958,10 @@
       <c r="F33" s="1">
         <v>11662.0033</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="5">
         <v>306.067805316553</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="6">
         <v>742.930411702489</v>
       </c>
     </row>
@@ -2967,19 +2975,19 @@
       <c r="C34" s="2">
         <v>23.744276</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <v>2837686</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="14">
         <v>1102.74</v>
       </c>
       <c r="F34" s="1">
         <v>19342.03715</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="5">
         <v>181.275456752268</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="6">
         <v>883.190053865825</v>
       </c>
     </row>
@@ -2993,19 +3001,19 @@
       <c r="C35" s="2">
         <v>23.657662</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="9">
         <v>2568387</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="14">
         <v>1096.98</v>
       </c>
       <c r="F35" s="1">
         <v>29918.31925</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="5">
         <v>816.397647806739</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="6">
         <v>871.392368137979</v>
       </c>
     </row>
@@ -3019,19 +3027,19 @@
       <c r="C36" s="2">
         <v>23.682064</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="8">
         <v>3969473</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="14">
         <v>1777.2</v>
       </c>
       <c r="F36" s="1">
         <v>32816.75035</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="5">
         <v>208.524532464804</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="6">
         <v>1215.56099482332</v>
       </c>
     </row>
@@ -3048,16 +3056,16 @@
       <c r="D37" s="3">
         <v>10466625</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="14">
         <v>9650.19</v>
       </c>
       <c r="F37" s="1">
         <v>163963.2506</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="5">
         <v>4254.7256097561</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="6">
         <v>881.552694817408</v>
       </c>
     </row>
@@ -3074,16 +3082,16 @@
       <c r="D38" s="3">
         <v>18676605</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="14">
         <v>25019.11</v>
       </c>
       <c r="F38" s="1">
         <v>256433.2788</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="5">
         <v>2512.32243744956</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="6">
         <v>401.9262875458</v>
       </c>
     </row>
@@ -3097,19 +3105,19 @@
       <c r="C39" s="2">
         <v>24.288832</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="8">
         <v>3873239</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="14">
         <v>1207.98</v>
       </c>
       <c r="F39" s="1">
         <v>23001.24985</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="5">
         <v>244.137346359912</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="6">
         <v>866.500273183331</v>
       </c>
     </row>
@@ -3123,19 +3131,19 @@
       <c r="C40" s="2">
         <v>22.517024</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <v>4418060</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="14">
         <v>3151.59</v>
       </c>
       <c r="F40" s="1">
         <v>74366.9591</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="5">
         <v>2476.49103139013</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="6">
         <v>983.789135008044</v>
       </c>
     </row>
@@ -3149,19 +3157,19 @@
       <c r="C41" s="2">
         <v>39.655048</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="7">
         <v>556621</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="16">
         <v>563.14</v>
       </c>
       <c r="F41" s="1">
         <v>6927.1677</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="5">
         <v>317.343785632839</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="6">
         <v>3986.12068047022</v>
       </c>
     </row>
@@ -3178,16 +3186,16 @@
       <c r="D42" s="3">
         <v>2709378</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="14">
         <v>2787.4</v>
       </c>
       <c r="F42" s="1">
         <v>31697.5928</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="5">
         <v>97.5719533275713</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="6">
         <v>2421.08703451245</v>
       </c>
     </row>
@@ -3201,19 +3209,19 @@
       <c r="C43" s="2">
         <v>40.742987</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="8">
         <v>1538715</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="14">
         <v>874</v>
       </c>
       <c r="F43" s="1">
         <v>4367.9186</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="5">
         <v>23.6216610377648</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="6">
         <v>1797.12700228833</v>
       </c>
     </row>
@@ -3227,19 +3235,19 @@
       <c r="C44" s="2">
         <v>49.166536</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="8">
         <v>2242875</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="14">
         <v>1172.2</v>
       </c>
       <c r="F44" s="1">
         <v>12212.16235</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="5">
         <v>8.57466452574837</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="6">
         <v>995.702951714724</v>
       </c>
     </row>
@@ -3253,19 +3261,19 @@
       <c r="C45" s="2">
         <v>43.653566</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="8">
         <v>2873168</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="14">
         <v>1276.64</v>
       </c>
       <c r="F45" s="1">
         <v>12738.9376</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="5">
         <v>48.1840715088296</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="6">
         <v>3260.38429001128</v>
       </c>
     </row>
@@ -3279,19 +3287,19 @@
       <c r="C46" s="2">
         <v>40.842127</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="7">
         <v>3446100</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="14">
         <v>2800.7</v>
       </c>
       <c r="F46" s="1">
         <v>49792.06575</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="5">
         <v>200.517863377167</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="6">
         <v>991.898453957939</v>
       </c>
     </row>
@@ -3305,19 +3313,19 @@
       <c r="C47" s="2">
         <v>40.994526</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="8">
         <v>1706328</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="14">
         <v>826.9</v>
       </c>
       <c r="F47" s="1">
         <v>13015.3264</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="5">
         <v>31.3340678713089</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="6">
         <v>6290.2467045592</v>
       </c>
     </row>
@@ -3331,19 +3339,19 @@
       <c r="C48" s="2">
         <v>39.608744</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="8">
         <v>2153638</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="14">
         <v>3533.66</v>
       </c>
       <c r="F48" s="1">
         <v>47234.4272</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="5">
         <v>24.7880803848899</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="6">
         <v>2136.75113055585</v>
       </c>
     </row>
@@ -3357,19 +3365,19 @@
       <c r="C49" s="2">
         <v>42.256876</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="7">
         <v>4035967</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="14">
         <v>1763.6</v>
       </c>
       <c r="F49" s="1">
         <v>26583.7003</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="5">
         <v>44.833616600571</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="6">
         <v>1005.48990700839</v>
       </c>
     </row>
@@ -3383,19 +3391,19 @@
       <c r="C50" s="2">
         <v>45.771178</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="7">
         <v>689611</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="14">
         <v>206.4</v>
       </c>
       <c r="F50" s="1">
         <v>3345.05995</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="5">
         <v>111.407269789984</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="6">
         <v>1209.21027131783</v>
       </c>
     </row>
@@ -3409,19 +3417,19 @@
       <c r="C51" s="2">
         <v>47.350659</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="10">
         <v>891271</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="17">
         <v>340.2</v>
       </c>
       <c r="F51" s="1">
         <v>2542.82555</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="5">
         <v>60.7753835663144</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="6">
         <v>1388.79188712522</v>
       </c>
     </row>
@@ -3435,7 +3443,7 @@
       <c r="C52" s="2">
         <v>47.728332</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="7">
         <v>878881</v>
       </c>
       <c r="E52" s="4">
@@ -3444,10 +3452,10 @@
       <c r="F52" s="1">
         <v>1111.7092</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="5">
         <v>26.7951524390244</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="6">
         <v>1201.53799247942</v>
       </c>
     </row>
@@ -3461,19 +3469,19 @@
       <c r="C53" s="2">
         <v>46.654147</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="8">
         <v>3756167</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="14">
         <v>1150.2</v>
       </c>
       <c r="F53" s="1">
         <v>11070.18895</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="5">
         <v>107.709890172913</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="6">
         <v>530.460789427926</v>
       </c>
     </row>
@@ -3487,19 +3495,19 @@
       <c r="C54" s="2">
         <v>45.802981</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="7">
         <v>10009854</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="14">
         <v>5183.8</v>
       </c>
       <c r="F54" s="1">
         <v>73118.61375</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="5">
         <v>188.594732082297</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="6">
         <v>485.869246498707</v>
       </c>
     </row>
@@ -3513,19 +3521,19 @@
       <c r="C55" s="2">
         <v>46.589498</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="7">
         <v>2781562</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="14">
         <v>2301.1</v>
       </c>
       <c r="F55" s="1">
         <v>43232.5286</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="5">
         <v>131.17481726008</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="6">
         <v>968.915735952371</v>
       </c>
     </row>
@@ -3539,19 +3547,19 @@
       <c r="C56" s="2">
         <v>46.800002</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="7">
         <v>2156505</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="14">
         <v>811.8</v>
       </c>
       <c r="F56" s="1">
         <v>14963.6972</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="5">
         <v>65.9400990704501</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="6">
         <v>577.288741069229</v>
       </c>
     </row>
@@ -3565,19 +3573,19 @@
       <c r="C57" s="2">
         <v>46.676157</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="10">
         <v>1208803</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="15">
         <v>493.9</v>
       </c>
       <c r="F57" s="1">
         <v>3708.21855</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="5">
         <v>53.2934926373336</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="6">
         <v>996.371735169063</v>
       </c>
     </row>
@@ -3591,19 +3599,19 @@
       <c r="C58" s="2">
         <v>50.244887</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="7">
         <v>1286401</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="14">
         <v>614.4</v>
       </c>
       <c r="F58" s="1">
         <v>4440.1046</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="5">
         <v>18.5507390583315</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="6">
         <v>578.512369791667</v>
       </c>
     </row>
@@ -3617,19 +3625,19 @@
       <c r="C59" s="2">
         <v>44.551486</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="8">
         <v>2290208</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="14">
         <v>831.7</v>
       </c>
       <c r="F59" s="1">
         <v>14468.23965</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="5">
         <v>58.9849331650655</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="6">
         <v>631.172297703499</v>
       </c>
     </row>
@@ -3643,19 +3651,19 @@
       <c r="C60" s="2">
         <v>47.354892</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="7">
         <v>4067489</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="14">
         <v>1200.4</v>
       </c>
       <c r="F60" s="1">
         <v>19054.921</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="5">
         <v>95.7754832936966</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="6">
         <v>789.316061312896</v>
       </c>
     </row>
@@ -3669,19 +3677,19 @@
       <c r="C61" s="2">
         <v>45.295087</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="8">
         <v>1502060</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="18">
         <v>572.4</v>
       </c>
       <c r="F61" s="1">
         <v>4389.82705</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="5">
         <v>66.4687140454908</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="6">
         <v>835.698812019567</v>
       </c>
     </row>
@@ -3695,19 +3703,19 @@
       <c r="C62" s="2">
         <v>42.819346</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="11">
         <v>673383</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="19">
         <v>607.91</v>
       </c>
       <c r="F62" s="1">
         <v>13332.03355</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="5">
         <v>4.90725248138054</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="6">
         <v>1671.49249066474</v>
       </c>
     </row>
@@ -3721,19 +3729,19 @@
       <c r="C63" s="2">
         <v>45.577712</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="11">
         <v>490348</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="17">
         <v>886.9</v>
       </c>
       <c r="F63" s="1">
         <v>35240.96345</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="5">
         <v>63.3934065934066</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="6">
         <v>854.97350321344</v>
       </c>
     </row>
@@ -3747,19 +3755,19 @@
       <c r="C64" s="2">
         <v>42.950736</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="11">
         <v>693988</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="17">
         <v>373.41</v>
       </c>
       <c r="F64" s="1">
         <v>8743.9783</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="5">
         <v>9.94765208416949</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="6">
         <v>4651.38052007177</v>
       </c>
     </row>
@@ -3773,19 +3781,19 @@
       <c r="C65" s="2">
         <v>43.825377</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="11">
         <v>4054369</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="15">
         <v>3337.32</v>
       </c>
       <c r="F65" s="1">
         <v>77580.8708</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="5">
         <v>294.050551203945</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="6">
         <v>1137.72548032553</v>
       </c>
     </row>
@@ -3799,19 +3807,19 @@
       <c r="C66" s="2">
         <v>32.629057</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="7">
         <v>3209004</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="14">
         <v>1915.1</v>
       </c>
       <c r="F66" s="1">
         <v>9360.83555</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="5">
         <v>135.595537902476</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="6">
         <v>538.485196595478</v>
       </c>
     </row>
@@ -3825,19 +3833,19 @@
       <c r="C67" s="2">
         <v>32.010161</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="8">
         <v>5260951</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="14">
         <v>4601.97</v>
       </c>
       <c r="F67" s="1">
         <v>21048.89595</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="5">
         <v>266.674320762368</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="6">
         <v>358.030365256618</v>
       </c>
     </row>
@@ -3851,19 +3859,19 @@
       <c r="C68" s="2">
         <v>30.663706</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="9">
         <v>1158640</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="14">
         <v>617.49</v>
       </c>
       <c r="F68" s="1">
         <v>3252.25865</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="5">
         <v>441.891685736079</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="6">
         <v>281.636787640286</v>
       </c>
     </row>
@@ -3877,19 +3885,19 @@
       <c r="C69" s="2">
         <v>30.593354</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="7">
         <v>12326518</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="14">
         <v>15616.06</v>
       </c>
       <c r="F69" s="1">
         <v>187221.742</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="5">
         <v>1438.50134204691</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="6">
         <v>394.121692667677</v>
       </c>
     </row>
@@ -3903,19 +3911,19 @@
       <c r="C70" s="2">
         <v>30.453722</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="8">
         <v>5882719</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="14">
         <v>2169.55</v>
       </c>
       <c r="F70" s="1">
         <v>15361.6997</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="5">
         <v>336.983387752764</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="6">
         <v>644.296743564334</v>
       </c>
     </row>
@@ -3929,19 +3937,19 @@
       <c r="C71" s="2">
         <v>30.69217</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="10">
         <v>4017607</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="14">
         <v>4261.42</v>
       </c>
       <c r="F71" s="1">
         <v>23933.4183</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="5">
         <v>189.241968911917</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="6">
         <v>549.233354140169</v>
       </c>
     </row>
@@ -3955,19 +3963,19 @@
       <c r="C72" s="2">
         <v>31.035445</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="8">
         <v>2596927</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="14">
         <v>1906.41</v>
       </c>
       <c r="F72" s="1">
         <v>8011.66</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="5">
         <v>209.362060625605</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="6">
         <v>574.515975052586</v>
       </c>
     </row>
@@ -3981,19 +3989,19 @@
       <c r="C73" s="2">
         <v>30.918311</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="8">
         <v>4270371</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="14">
         <v>2193.55</v>
       </c>
       <c r="F73" s="1">
         <v>12901.3722</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="5">
         <v>479.60141509434</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="6">
         <v>664.874746415628</v>
       </c>
     </row>
@@ -4007,19 +4015,19 @@
       <c r="C74" s="2">
         <v>30.336282</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="8">
         <v>5231180</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="16">
         <v>2369.04</v>
       </c>
       <c r="F74" s="1">
         <v>19540.4969</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="5">
         <v>367.306558067687</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="6">
         <v>612.703035828859</v>
       </c>
     </row>
@@ -4033,19 +4041,19 @@
       <c r="C75" s="2">
         <v>29.84135</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="8">
         <v>2658316</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="14">
         <v>1524.67</v>
       </c>
       <c r="F75" s="1">
         <v>9161.48535</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="5">
         <v>272.591878589007</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="6">
         <v>638.188591629664</v>
       </c>
     </row>
@@ -4059,19 +4067,19 @@
       <c r="C76" s="2">
         <v>31.690275</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="8">
         <v>2047923</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="14">
         <v>1096.72</v>
       </c>
       <c r="F76" s="1">
         <v>3952.92965</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="5">
         <v>213.01466611192</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76" s="6">
         <v>419.051353125684</v>
       </c>
     </row>
@@ -4085,19 +4093,19 @@
       <c r="C77" s="2">
         <v>30.201082</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="7">
         <v>2469079</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="14">
         <v>1641.32</v>
       </c>
       <c r="F77" s="1">
         <v>13801.04755</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="5">
         <v>538.747327078333</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="6">
         <v>903.635488509249</v>
       </c>
     </row>
@@ -4111,19 +4119,19 @@
       <c r="C78" s="2">
         <v>30.391461</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="8">
         <v>1079353</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="14">
         <v>1005.23</v>
       </c>
       <c r="F78" s="1">
         <v>8983.00825</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78" s="5">
         <v>676.28634085213</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="6">
         <v>734.35930085652</v>
       </c>
     </row>
@@ -4137,19 +4145,19 @@
       <c r="C79" s="2">
         <v>41.677576</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="7">
         <v>9070093</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="14">
         <v>6571.6</v>
       </c>
       <c r="F79" s="1">
         <v>118212.8905</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79" s="5">
         <v>705.294945567652</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="6">
         <v>557.033751293445</v>
       </c>
     </row>
@@ -4163,19 +4171,19 @@
       <c r="C80" s="2">
         <v>40.710974</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="7">
         <v>2434194</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="14">
         <v>770.4</v>
       </c>
       <c r="F80" s="1">
         <v>14948.08225</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80" s="5">
         <v>233.697580645161</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80" s="6">
         <v>1371.17471443406</v>
       </c>
     </row>
@@ -4189,19 +4197,19 @@
       <c r="C81" s="2">
         <v>41.096114</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="7">
         <v>2703853</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="14">
         <v>1072.2</v>
       </c>
       <c r="F81" s="1">
         <v>20781.76315</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81" s="5">
         <v>269.093650477707</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="6">
         <v>8587.73922775602</v>
       </c>
     </row>
@@ -4215,19 +4223,19 @@
       <c r="C82" s="2">
         <v>38.913962</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="7">
         <v>7450785</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="14">
         <v>7030.4</v>
       </c>
       <c r="F82" s="1">
         <v>86380.76865</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82" s="5">
         <v>542.309120023291</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="6">
         <v>575.754722348657</v>
       </c>
     </row>
@@ -4241,19 +4249,19 @@
       <c r="C83" s="2">
         <v>40.000646</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="7">
         <v>2188436</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E83" s="14">
         <v>779.4</v>
       </c>
       <c r="F83" s="1">
         <v>11936.82375</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="5">
         <v>143.128580771746</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83" s="6">
         <v>1308.31537079805</v>
       </c>
     </row>
@@ -4270,16 +4278,16 @@
       <c r="D84" s="3">
         <v>1861372</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E84" s="14">
         <v>827.8</v>
       </c>
       <c r="F84" s="1">
         <v>14353.26395</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84" s="5">
         <v>165.147014461893</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="6">
         <v>1335.64629137473</v>
       </c>
     </row>
@@ -4293,19 +4301,19 @@
       <c r="C85" s="2">
         <v>40.71956</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="8">
         <v>1389691</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E85" s="14">
         <v>1303.6</v>
       </c>
       <c r="F85" s="1">
         <v>30172.48015</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85" s="5">
         <v>338.701194248111</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="6">
         <v>786.93234120896</v>
       </c>
     </row>
@@ -4319,7 +4327,7 @@
       <c r="C86" s="2">
         <v>42.022028</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="7">
         <v>1647280</v>
       </c>
       <c r="E86" s="4">
@@ -4328,10 +4336,10 @@
       <c r="F86" s="1">
         <v>7666.2888</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86" s="5">
         <v>159.511958942578</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="6">
         <v>1072.74673008323</v>
       </c>
     </row>
@@ -4345,19 +4353,19 @@
       <c r="C87" s="2">
         <v>42.223709</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="8">
         <v>2388294</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E87" s="14">
         <v>663.1</v>
       </c>
       <c r="F87" s="1">
         <v>6906.47095</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87" s="5">
         <v>183.92714670774</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="6">
         <v>795.204343236314</v>
       </c>
     </row>
@@ -4371,19 +4379,19 @@
       <c r="C88" s="2">
         <v>40.625027</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="10">
         <v>2328582</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="14">
         <v>1325.5</v>
       </c>
       <c r="F88" s="1">
         <v>31694.3129</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88" s="5">
         <v>429.073521282477</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88" s="6">
         <v>2178.50999622784</v>
       </c>
     </row>
@@ -4397,19 +4405,19 @@
       <c r="C89" s="2">
         <v>41.486834</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="7">
         <v>1326018</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E89" s="14">
         <v>810.4</v>
       </c>
       <c r="F89" s="1">
         <v>11281.5311</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89" s="5">
         <v>157.596624673164</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="6">
         <v>1706.32156959526</v>
       </c>
     </row>
@@ -4423,19 +4431,19 @@
       <c r="C90" s="2">
         <v>41.267396</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="8">
         <v>1604580</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E90" s="14">
         <v>837.7</v>
       </c>
       <c r="F90" s="1">
         <v>20336.7867</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90" s="5">
         <v>335.125313283208</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90" s="6">
         <v>1454.95881580518</v>
       </c>
     </row>
@@ -4449,19 +4457,19 @@
       <c r="C91" s="2">
         <v>41.108239</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="10">
         <v>3325372</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="14">
         <v>1738.8</v>
       </c>
       <c r="F91" s="1">
         <v>27703.8367</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G91" s="5">
         <v>358.995141962647</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="6">
         <v>1749.79641131815</v>
       </c>
     </row>
@@ -4475,19 +4483,19 @@
       <c r="C92" s="2">
         <v>41.601855</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="7">
         <v>2872857</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E92" s="14">
         <v>875.6</v>
       </c>
       <c r="F92" s="1">
         <v>9393.018</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G92" s="5">
         <v>145.8451111788</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92" s="6">
         <v>1228.43193238922</v>
       </c>
     </row>
@@ -4501,7 +4509,7 @@
       <c r="C93" s="2">
         <v>37.464551</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="7">
         <v>7102116</v>
       </c>
       <c r="E93" s="4">
@@ -4510,10 +4518,10 @@
       <c r="F93" s="1">
         <v>64907.7157</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93" s="5">
         <v>512.233393436711</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="6">
         <v>707.72783448177</v>
       </c>
     </row>
@@ -4527,7 +4535,7 @@
       <c r="C94" s="2">
         <v>37.513315</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="8">
         <v>2906548</v>
       </c>
       <c r="E94" s="4">
@@ -4536,10 +4544,10 @@
       <c r="F94" s="1">
         <v>40106.88225</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="5">
         <v>501.128965517241</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H94" s="6">
         <v>440.091258835108</v>
       </c>
     </row>
@@ -4553,19 +4561,19 @@
       <c r="C95" s="2">
         <v>36.066938</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="7">
         <v>10071722</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="14">
         <v>12400.56</v>
       </c>
       <c r="F95" s="1">
         <v>139354.3265</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G95" s="5">
         <v>891.855308598247</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H95" s="6">
         <v>369.256872270285</v>
       </c>
     </row>
@@ -4579,19 +4587,19 @@
       <c r="C96" s="2">
         <v>36.813787</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="7">
         <v>4704138</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E96" s="14">
         <v>3673.54</v>
       </c>
       <c r="F96" s="1">
         <v>42415.2356</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96" s="5">
         <v>788.623302598491</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H96" s="6">
         <v>927.077423956184</v>
       </c>
     </row>
@@ -4605,19 +4613,19 @@
       <c r="C97" s="2">
         <v>36.455857</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="8">
         <v>5952128</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E97" s="14">
         <v>2316.84</v>
       </c>
       <c r="F97" s="1">
         <v>27007.2821</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G97" s="5">
         <v>689.861845155308</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97" s="6">
         <v>1328.72317466895</v>
       </c>
     </row>
@@ -4631,19 +4639,19 @@
       <c r="C98" s="2">
         <v>37.433992</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="8">
         <v>2193518</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E98" s="14">
         <v>2981.19</v>
       </c>
       <c r="F98" s="1">
         <v>39629.05775</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98" s="5">
         <v>266.106757248575</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98" s="6">
         <v>1034.78610890282</v>
       </c>
     </row>
@@ -4657,19 +4665,19 @@
       <c r="C99" s="2">
         <v>37.382687</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="8">
         <v>3928568</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E99" s="14">
         <v>2508.11</v>
       </c>
       <c r="F99" s="1">
         <v>33956.4601</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G99" s="5">
         <v>406.684057971015</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H99" s="6">
         <v>4704.33832646893</v>
       </c>
     </row>
@@ -4683,19 +4691,19 @@
       <c r="C100" s="2">
         <v>34.810858</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="7">
         <v>3855601</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E100" s="14">
         <v>1733.25</v>
       </c>
       <c r="F100" s="1">
         <v>17265.03575</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G100" s="5">
         <v>844.785495179667</v>
       </c>
-      <c r="H100" s="5">
+      <c r="H100" s="6">
         <v>899.967113803548</v>
       </c>
     </row>
@@ -4709,19 +4717,19 @@
       <c r="C101" s="2">
         <v>36.707668</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="7">
         <v>9386705</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E101" s="14">
         <v>5872.2</v>
       </c>
       <c r="F101" s="1">
         <v>77948.99485</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G101" s="5">
         <v>581.472155113672</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H101" s="6">
         <v>988.657062089166</v>
       </c>
     </row>
@@ -4735,19 +4743,19 @@
       <c r="C102" s="2">
         <v>35.416912</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="8">
         <v>2968365</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E102" s="14">
         <v>2006.43</v>
       </c>
       <c r="F102" s="1">
         <v>26402.54435</v>
       </c>
-      <c r="G102" s="1">
+      <c r="G102" s="5">
         <v>552.665239247812</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H102" s="6">
         <v>1263.66431921373</v>
       </c>
     </row>
@@ -4761,19 +4769,19 @@
       <c r="C103" s="2">
         <v>37.436492</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="7">
         <v>5611194</v>
       </c>
-      <c r="E103" s="12">
+      <c r="E103" s="14">
         <v>3078.99</v>
       </c>
       <c r="F103" s="1">
         <v>29194.20465</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103" s="5">
         <v>541.725622707086</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H103" s="6">
         <v>768.787492002248</v>
       </c>
     </row>
@@ -4787,19 +4795,19 @@
       <c r="C104" s="2">
         <v>36.652069</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="8">
         <v>9202432</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E104" s="14">
         <v>10140.9</v>
       </c>
       <c r="F104" s="1">
         <v>92031.12395</v>
       </c>
-      <c r="G104" s="1">
+      <c r="G104" s="5">
         <v>898.324092151503</v>
       </c>
-      <c r="H104" s="5">
+      <c r="H104" s="6">
         <v>408.545789821416</v>
       </c>
     </row>
@@ -4813,19 +4821,19 @@
       <c r="C105" s="2">
         <v>35.103771</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="7">
         <v>11018365</v>
       </c>
-      <c r="E105" s="12">
+      <c r="E105" s="14">
         <v>4805.25</v>
       </c>
       <c r="F105" s="1">
         <v>61404.15985</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105" s="5">
         <v>640.937990809144</v>
       </c>
-      <c r="H105" s="5">
+      <c r="H105" s="6">
         <v>1013.85422194475</v>
       </c>
     </row>
@@ -4839,7 +4847,7 @@
       <c r="C106" s="2">
         <v>35.415117</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" s="8">
         <v>8357897</v>
       </c>
       <c r="E106" s="4">
@@ -4848,10 +4856,10 @@
       <c r="F106" s="1">
         <v>37262.8797</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G106" s="5">
         <v>747.107982479664</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H106" s="6">
         <v>733.406462838567</v>
       </c>
     </row>
@@ -4865,19 +4873,19 @@
       <c r="C107" s="2">
         <v>35.234309</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" s="8">
         <v>8795939</v>
       </c>
-      <c r="E107" s="12">
+      <c r="E107" s="14">
         <v>3483.11</v>
       </c>
       <c r="F107" s="1">
         <v>34699.1418</v>
       </c>
-      <c r="G107" s="1">
+      <c r="G107" s="5">
         <v>718.681183103195</v>
       </c>
-      <c r="H107" s="5">
+      <c r="H107" s="6">
         <v>719.070026499307</v>
       </c>
     </row>
@@ -4891,7 +4899,7 @@
       <c r="C108" s="2">
         <v>36.201784</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108" s="8">
         <v>5472217</v>
       </c>
       <c r="E108" s="4">
@@ -4900,10 +4908,10 @@
       <c r="F108" s="1">
         <v>39906.3575</v>
       </c>
-      <c r="G108" s="1">
+      <c r="G108" s="5">
         <v>705.000901829425</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="6">
         <v>740.008313753841</v>
       </c>
     </row>
@@ -4920,16 +4928,16 @@
       <c r="D109" s="3">
         <v>2041231</v>
       </c>
-      <c r="E109" s="12">
+      <c r="E109" s="14">
         <v>739.46</v>
       </c>
       <c r="F109" s="1">
         <v>3318.65655</v>
       </c>
-      <c r="G109" s="1">
+      <c r="G109" s="5">
         <v>105.80712212316</v>
       </c>
-      <c r="H109" s="5">
+      <c r="H109" s="6">
         <v>612.382008492684</v>
       </c>
     </row>
@@ -4946,16 +4954,16 @@
       <c r="D110" s="3">
         <v>3211462</v>
       </c>
-      <c r="E110" s="12">
+      <c r="E110" s="14">
         <v>1593.4</v>
       </c>
       <c r="F110" s="1">
         <v>15374.33505</v>
       </c>
-      <c r="G110" s="1">
+      <c r="G110" s="5">
         <v>118.521626808385</v>
       </c>
-      <c r="H110" s="5">
+      <c r="H110" s="6">
         <v>562.197815990963</v>
       </c>
     </row>
@@ -4969,19 +4977,19 @@
       <c r="C111" s="2">
         <v>34.897133</v>
       </c>
-      <c r="D111" s="18">
+      <c r="D111" s="20">
         <v>698322</v>
       </c>
-      <c r="E111" s="12">
+      <c r="E111" s="14">
         <v>381.75</v>
       </c>
       <c r="F111" s="1">
         <v>5022.07235</v>
       </c>
-      <c r="G111" s="1">
+      <c r="G111" s="5">
         <v>179.887171561051</v>
       </c>
-      <c r="H111" s="5">
+      <c r="H111" s="6">
         <v>1008.64702030124</v>
       </c>
     </row>
@@ -4998,16 +5006,16 @@
       <c r="D112" s="3">
         <v>3624750</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E112" s="14">
         <v>4089.66</v>
       </c>
       <c r="F112" s="1">
         <v>61636.256</v>
       </c>
-      <c r="G112" s="1">
+      <c r="G112" s="5">
         <v>84.4516670161459</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112" s="6">
         <v>789.165358489459</v>
       </c>
     </row>
@@ -5024,16 +5032,16 @@
       <c r="D113" s="3">
         <v>2282581</v>
       </c>
-      <c r="E113" s="12">
+      <c r="E113" s="14">
         <v>1601.48</v>
       </c>
       <c r="F113" s="1">
         <v>25727.6942</v>
       </c>
-      <c r="G113" s="1">
+      <c r="G113" s="5">
         <v>61.6297486297486</v>
       </c>
-      <c r="H113" s="5">
+      <c r="H113" s="6">
         <v>691.002073082399</v>
       </c>
     </row>
@@ -5047,19 +5055,19 @@
       <c r="C114" s="2">
         <v>34.343207</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="8">
         <v>12952907</v>
       </c>
-      <c r="E114" s="12">
+      <c r="E114" s="14">
         <v>10020.39</v>
       </c>
       <c r="F114" s="1">
         <v>149195.4811</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114" s="5">
         <v>1204.02556237219</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H114" s="6">
         <v>417.648115492511</v>
       </c>
     </row>
@@ -5073,19 +5081,19 @@
       <c r="C115" s="2">
         <v>34.362862</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115" s="8">
         <v>3321853</v>
       </c>
-      <c r="E115" s="12">
+      <c r="E115" s="14">
         <v>2276.95</v>
       </c>
       <c r="F115" s="1">
         <v>18304.1017</v>
       </c>
-      <c r="G115" s="1">
+      <c r="G115" s="5">
         <v>183.355577634266</v>
       </c>
-      <c r="H115" s="5">
+      <c r="H115" s="6">
         <v>429.81137047366</v>
       </c>
     </row>
@@ -5099,19 +5107,19 @@
       <c r="C116" s="2">
         <v>32.685435</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" s="8">
         <v>2493436</v>
       </c>
-      <c r="E116" s="12">
+      <c r="E116" s="14">
         <v>1088.78</v>
       </c>
       <c r="F116" s="1">
         <v>7770.488</v>
       </c>
-      <c r="G116" s="1">
+      <c r="G116" s="5">
         <v>105.941366417403</v>
       </c>
-      <c r="H116" s="5">
+      <c r="H116" s="6">
         <v>496.778045151454</v>
       </c>
     </row>
@@ -5125,19 +5133,19 @@
       <c r="C117" s="2">
         <v>34.520632</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" s="8">
         <v>4688744</v>
       </c>
-      <c r="E117" s="12">
+      <c r="E117" s="14">
         <v>1866.27</v>
       </c>
       <c r="F117" s="1">
         <v>22531.8597</v>
       </c>
-      <c r="G117" s="1">
+      <c r="G117" s="5">
         <v>356.992843002893</v>
       </c>
-      <c r="H117" s="5">
+      <c r="H117" s="6">
         <v>841.529360703435</v>
       </c>
     </row>
@@ -5151,19 +5159,19 @@
       <c r="C118" s="2">
         <v>34.329896</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118" s="8">
         <v>3959842</v>
       </c>
-      <c r="E118" s="12">
+      <c r="E118" s="14">
         <v>2204.81</v>
       </c>
       <c r="F118" s="1">
         <v>46049.5145</v>
       </c>
-      <c r="G118" s="1">
+      <c r="G118" s="5">
         <v>414.903813914501</v>
       </c>
-      <c r="H118" s="5">
+      <c r="H118" s="6">
         <v>632.934357155492</v>
       </c>
     </row>
@@ -5183,13 +5191,13 @@
       <c r="E119" s="4">
         <v>38700.58</v>
       </c>
-      <c r="F119" s="20">
+      <c r="F119" s="22">
         <v>440347.7275</v>
       </c>
-      <c r="G119" s="1">
+      <c r="G119" s="5">
         <v>3922.23545182148</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H119" s="6">
         <v>405.311109032474</v>
       </c>
     </row>
@@ -5203,7 +5211,7 @@
       <c r="C120" s="2">
         <v>26.253103</v>
       </c>
-      <c r="D120" s="19">
+      <c r="D120" s="21">
         <v>2470630</v>
       </c>
       <c r="E120" s="4">
@@ -5212,10 +5220,10 @@
       <c r="F120" s="1">
         <v>18358.04865</v>
       </c>
-      <c r="G120" s="1">
+      <c r="G120" s="5">
         <v>266.605158087839</v>
       </c>
-      <c r="H120" s="5">
+      <c r="H120" s="6">
         <v>721.284937004779</v>
       </c>
     </row>
@@ -5229,19 +5237,19 @@
       <c r="C121" s="2">
         <v>27.721931</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" s="8">
         <v>6606675</v>
       </c>
-      <c r="E121" s="12">
+      <c r="E121" s="14">
         <v>3720.05</v>
       </c>
       <c r="F121" s="1">
         <v>31828.9629</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G121" s="5">
         <v>214.767407840843</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H121" s="6">
         <v>671.733444442951</v>
       </c>
     </row>
@@ -5255,19 +5263,19 @@
       <c r="C122" s="2">
         <v>26.592538</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122" s="8">
         <v>3031602</v>
       </c>
-      <c r="E122" s="12">
+      <c r="E122" s="14">
         <v>1339.62</v>
       </c>
       <c r="F122" s="1">
         <v>14076.18655</v>
       </c>
-      <c r="G122" s="1">
+      <c r="G122" s="5">
         <v>305.789993947952</v>
       </c>
-      <c r="H122" s="5">
+      <c r="H122" s="6">
         <v>795.906301787074</v>
       </c>
     </row>
@@ -5281,19 +5289,19 @@
       <c r="C123" s="2">
         <v>27.731555</v>
       </c>
-      <c r="D123" s="8">
+      <c r="D123" s="9">
         <v>3298468</v>
       </c>
-      <c r="E123" s="12">
+      <c r="E123" s="14">
         <v>1327.79</v>
       </c>
       <c r="F123" s="1">
         <v>14972.84345</v>
       </c>
-      <c r="G123" s="1">
+      <c r="G123" s="5">
         <v>183.105806594871</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H123" s="6">
         <v>723.247652113663</v>
       </c>
     </row>
@@ -5307,19 +5315,19 @@
       <c r="C124" s="2">
         <v>27.283615</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D124" s="9">
         <v>6899636</v>
       </c>
-      <c r="E124" s="12">
+      <c r="E124" s="14">
         <v>2020.39</v>
       </c>
       <c r="F124" s="1">
         <v>20576.1197</v>
       </c>
-      <c r="G124" s="1">
+      <c r="G124" s="5">
         <v>256.979254348393</v>
       </c>
-      <c r="H124" s="5">
+      <c r="H124" s="6">
         <v>504.55506115156</v>
       </c>
     </row>
@@ -5333,19 +5341,19 @@
       <c r="C125" s="2">
         <v>26.646694</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D125" s="8">
         <v>5987018</v>
       </c>
-      <c r="E125" s="12">
+      <c r="E125" s="14">
         <v>4311.65</v>
       </c>
       <c r="F125" s="1">
         <v>72003.1377</v>
       </c>
-      <c r="G125" s="1">
+      <c r="G125" s="5">
         <v>744.376227775706</v>
       </c>
-      <c r="H125" s="5">
+      <c r="H125" s="6">
         <v>667.14529240546</v>
       </c>
     </row>
@@ -5359,19 +5367,19 @@
       <c r="C126" s="2">
         <v>29.266838</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D126" s="9">
         <v>798153</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E126" s="14">
         <v>322.78</v>
       </c>
       <c r="F126" s="1">
         <v>2615.50605</v>
       </c>
-      <c r="G126" s="1">
+      <c r="G126" s="5">
         <v>4.38545604395604</v>
       </c>
-      <c r="H126" s="5">
+      <c r="H126" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5385,19 +5393,19 @@
       <c r="C127" s="2">
         <v>31.477905</v>
       </c>
-      <c r="D127" s="8">
+      <c r="D127" s="9">
         <v>504838</v>
       </c>
-      <c r="E127" s="15">
+      <c r="E127" s="17">
         <v>170</v>
       </c>
       <c r="F127" s="1">
         <v>1434.0515</v>
       </c>
-      <c r="G127" s="1">
+      <c r="G127" s="5">
         <v>1.43341699981828</v>
       </c>
-      <c r="H127" s="5">
+      <c r="H127" s="6">
         <v>271.223529411765</v>
       </c>
     </row>
@@ -5411,19 +5419,19 @@
       <c r="C128" s="2">
         <v>31.142879</v>
       </c>
-      <c r="D128" s="8">
+      <c r="D128" s="9">
         <v>760966</v>
       </c>
-      <c r="E128" s="15">
+      <c r="E128" s="17">
         <v>252.89</v>
       </c>
       <c r="F128" s="1">
         <v>2763.07565</v>
       </c>
-      <c r="G128" s="1">
+      <c r="G128" s="5">
         <v>6.92940073030587</v>
       </c>
-      <c r="H128" s="5">
+      <c r="H128" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5437,19 +5445,19 @@
       <c r="C129" s="2">
         <v>29.237722</v>
       </c>
-      <c r="D129" s="8">
+      <c r="D129" s="9">
         <v>354035</v>
       </c>
-      <c r="E129" s="15">
+      <c r="E129" s="17">
         <v>215.4</v>
       </c>
       <c r="F129" s="1">
         <v>2449.3891</v>
       </c>
-      <c r="G129" s="1">
+      <c r="G129" s="5">
         <v>4.44215109348925</v>
       </c>
-      <c r="H129" s="5">
+      <c r="H129" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5463,19 +5471,19 @@
       <c r="C130" s="2">
         <v>29.653491</v>
       </c>
-      <c r="D130" s="8">
+      <c r="D130" s="9">
         <v>867891</v>
       </c>
-      <c r="E130" s="15">
+      <c r="E130" s="17">
         <v>678.16</v>
       </c>
       <c r="F130" s="1">
         <v>16607.867</v>
       </c>
-      <c r="G130" s="1">
+      <c r="G130" s="5">
         <v>29.4020936377803</v>
       </c>
-      <c r="H130" s="5">
+      <c r="H130" s="6">
         <v>562.351067594668</v>
       </c>
     </row>
@@ -5489,19 +5497,19 @@
       <c r="C131" s="2">
         <v>29.64875</v>
       </c>
-      <c r="D131" s="8">
+      <c r="D131" s="9">
         <v>238936</v>
       </c>
-      <c r="E131" s="15">
+      <c r="E131" s="17">
         <v>191.34</v>
       </c>
       <c r="F131" s="1">
         <v>848.1983</v>
       </c>
-      <c r="G131" s="1">
+      <c r="G131" s="5">
         <v>2.03913804139108</v>
       </c>
-      <c r="H131" s="5">
+      <c r="H131" s="6">
         <v>272.812793979304</v>
       </c>
     </row>
@@ -5515,7 +5523,7 @@
       <c r="C132" s="2">
         <v>30.674264</v>
       </c>
-      <c r="D132" s="7">
+      <c r="D132" s="8">
         <v>1342764</v>
       </c>
       <c r="E132" s="4">
@@ -5524,10 +5532,10 @@
       <c r="F132" s="1">
         <v>6529.78695</v>
       </c>
-      <c r="G132" s="1">
+      <c r="G132" s="5">
         <v>159.871889510656</v>
       </c>
-      <c r="H132" s="5">
+      <c r="H132" s="6">
         <v>875.048912418</v>
       </c>
     </row>
@@ -5541,7 +5549,7 @@
       <c r="C133" s="2">
         <v>31.668765</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D133" s="7">
         <v>2159930</v>
       </c>
       <c r="E133" s="4">
@@ -5550,10 +5558,10 @@
       <c r="F133" s="1">
         <v>25164.1815</v>
       </c>
-      <c r="G133" s="1">
+      <c r="G133" s="5">
         <v>533.447764880217</v>
       </c>
-      <c r="H133" s="5">
+      <c r="H133" s="6">
         <v>962.811285381133</v>
       </c>
     </row>
@@ -5567,19 +5575,19 @@
       <c r="C134" s="2">
         <v>32.891032</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D134" s="7">
         <v>8200264</v>
       </c>
-      <c r="E134" s="12">
+      <c r="E134" s="14">
         <v>2805.2</v>
       </c>
       <c r="F134" s="1">
         <v>48448.56455</v>
       </c>
-      <c r="G134" s="1">
+      <c r="G134" s="5">
         <v>810.462937339395</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H134" s="6">
         <v>566.906459432483</v>
       </c>
     </row>
@@ -5593,7 +5601,7 @@
       <c r="C135" s="2">
         <v>33.956264</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D135" s="8">
         <v>1970265</v>
       </c>
       <c r="E135" s="4">
@@ -5602,10 +5610,10 @@
       <c r="F135" s="1">
         <v>16994.19115</v>
       </c>
-      <c r="G135" s="1">
+      <c r="G135" s="5">
         <v>718.812477198103</v>
       </c>
-      <c r="H135" s="5">
+      <c r="H135" s="6">
         <v>607.568581896167</v>
       </c>
     </row>
@@ -5619,19 +5627,19 @@
       <c r="C136" s="2">
         <v>30.945214</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D136" s="8">
         <v>1311726</v>
       </c>
-      <c r="E136" s="12">
+      <c r="E136" s="14">
         <v>1003.7</v>
       </c>
       <c r="F136" s="1">
         <v>11096.8289</v>
       </c>
-      <c r="G136" s="1">
+      <c r="G136" s="5">
         <v>438.411096256685</v>
       </c>
-      <c r="H136" s="5">
+      <c r="H136" s="6">
         <v>979.376307661652</v>
       </c>
     </row>
@@ -5645,19 +5653,19 @@
       <c r="C137" s="2">
         <v>29.714886</v>
       </c>
-      <c r="D137" s="6">
+      <c r="D137" s="7">
         <v>1330565</v>
       </c>
-      <c r="E137" s="12">
+      <c r="E137" s="14">
         <v>850.4</v>
       </c>
       <c r="F137" s="1">
         <v>2043.42135</v>
       </c>
-      <c r="G137" s="1">
+      <c r="G137" s="5">
         <v>137.483467658607</v>
       </c>
-      <c r="H137" s="5">
+      <c r="H137" s="6">
         <v>481.994355597366</v>
       </c>
     </row>
@@ -5671,19 +5679,19 @@
       <c r="C138" s="2">
         <v>30.531828</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D138" s="8">
         <v>4165284</v>
       </c>
-      <c r="E138" s="12">
+      <c r="E138" s="14">
         <v>2467.68</v>
       </c>
       <c r="F138" s="1">
         <v>24803.7392</v>
       </c>
-      <c r="G138" s="1">
+      <c r="G138" s="5">
         <v>307.673511596986</v>
       </c>
-      <c r="H138" s="5">
+      <c r="H138" s="6">
         <v>470.900602995526</v>
       </c>
     </row>
@@ -5697,19 +5705,19 @@
       <c r="C139" s="2">
         <v>32.255904</v>
       </c>
-      <c r="D139" s="6">
+      <c r="D139" s="7">
         <v>3987054</v>
       </c>
-      <c r="E139" s="12">
+      <c r="E139" s="14">
         <v>3032.1</v>
       </c>
       <c r="F139" s="1">
         <v>46385.49175</v>
       </c>
-      <c r="G139" s="1">
+      <c r="G139" s="5">
         <v>294.98771825984</v>
       </c>
-      <c r="H139" s="5">
+      <c r="H139" s="6">
         <v>631.840968305795</v>
       </c>
     </row>
@@ -5723,19 +5731,19 @@
       <c r="C140" s="2">
         <v>32.585384</v>
       </c>
-      <c r="D140" s="6">
+      <c r="D140" s="7">
         <v>3033528</v>
       </c>
-      <c r="E140" s="12">
+      <c r="E140" s="14">
         <v>1337.2</v>
       </c>
       <c r="F140" s="1">
         <v>16736.1179</v>
       </c>
-      <c r="G140" s="1">
+      <c r="G140" s="5">
         <v>548.360086767896</v>
       </c>
-      <c r="H140" s="5">
+      <c r="H140" s="6">
         <v>714.55504038289</v>
       </c>
     </row>
@@ -5749,19 +5757,19 @@
       <c r="C141" s="2">
         <v>31.735892</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D141" s="8">
         <v>4393699</v>
       </c>
-      <c r="E141" s="12">
+      <c r="E141" s="14">
         <v>1669.5</v>
       </c>
       <c r="F141" s="1">
         <v>31313.45445</v>
       </c>
-      <c r="G141" s="1">
+      <c r="G141" s="5">
         <v>284.36340689923</v>
       </c>
-      <c r="H141" s="5">
+      <c r="H141" s="6">
         <v>621.471698113208</v>
       </c>
     </row>
@@ -5775,19 +5783,19 @@
       <c r="C142" s="2">
         <v>32.91682</v>
       </c>
-      <c r="D142" s="7">
+      <c r="D142" s="8">
         <v>3296408</v>
       </c>
-      <c r="E142" s="21">
+      <c r="E142" s="23">
         <v>2082.73</v>
       </c>
       <c r="F142" s="1">
         <v>26414.24695</v>
       </c>
-      <c r="G142" s="1">
+      <c r="G142" s="5">
         <v>553.92505461267</v>
       </c>
-      <c r="H142" s="5">
+      <c r="H142" s="6">
         <v>428.538504750976</v>
       </c>
     </row>
@@ -5801,19 +5809,19 @@
       <c r="C143" s="2">
         <v>33.647726</v>
       </c>
-      <c r="D143" s="8">
+      <c r="D143" s="9">
         <v>5324476</v>
       </c>
-      <c r="E143" s="12">
+      <c r="E143" s="14">
         <v>2044.99</v>
       </c>
       <c r="F143" s="1">
         <v>24763.7364</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G143" s="5">
         <v>535.715464332428</v>
       </c>
-      <c r="H143" s="5">
+      <c r="H143" s="6">
         <v>469.561220348266</v>
       </c>
     </row>
@@ -5827,19 +5835,19 @@
       <c r="C144" s="2">
         <v>33.846285</v>
       </c>
-      <c r="D144" s="7">
+      <c r="D144" s="8">
         <v>4996844</v>
       </c>
-      <c r="E144" s="12">
+      <c r="E144" s="14">
         <v>1806</v>
       </c>
       <c r="F144" s="1">
         <v>26823.3182</v>
       </c>
-      <c r="G144" s="1">
+      <c r="G144" s="5">
         <v>586.415209482455</v>
       </c>
-      <c r="H144" s="5">
+      <c r="H144" s="6">
         <v>414.81007751938</v>
       </c>
     </row>
@@ -5853,19 +5861,19 @@
       <c r="C145" s="2">
         <v>31.352614</v>
       </c>
-      <c r="D145" s="7">
+      <c r="D145" s="8">
         <v>3644420</v>
       </c>
-      <c r="E145" s="12">
+      <c r="E145" s="14">
         <v>3753.02</v>
       </c>
       <c r="F145" s="1">
         <v>37610.11645</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G145" s="5">
         <v>606.998667554963</v>
       </c>
-      <c r="H145" s="5">
+      <c r="H145" s="6">
         <v>540.174579405386</v>
       </c>
     </row>
@@ -5879,7 +5887,7 @@
       <c r="C146" s="2">
         <v>31.820567</v>
       </c>
-      <c r="D146" s="6">
+      <c r="D146" s="7">
         <v>9369881</v>
       </c>
       <c r="E146" s="4">
@@ -5888,10 +5896,10 @@
       <c r="F146" s="1">
         <v>136145.5182</v>
       </c>
-      <c r="G146" s="1">
+      <c r="G146" s="5">
         <v>818.687723896898</v>
       </c>
-      <c r="H146" s="5">
+      <c r="H146" s="6">
         <v>373.750413111255</v>
       </c>
     </row>
@@ -5905,19 +5913,19 @@
       <c r="C147" s="2">
         <v>30.939278</v>
       </c>
-      <c r="D147" s="7">
+      <c r="D147" s="8">
         <v>2500063</v>
       </c>
-      <c r="E147" s="12">
+      <c r="E147" s="14">
         <v>1607.5</v>
       </c>
       <c r="F147" s="1">
         <v>15792.5348</v>
       </c>
-      <c r="G147" s="1">
+      <c r="G147" s="5">
         <v>203.042556647446</v>
       </c>
-      <c r="H147" s="5">
+      <c r="H147" s="6">
         <v>838.297978227061</v>
       </c>
     </row>
@@ -5931,7 +5939,7 @@
       <c r="C148" s="2">
         <v>25.454202</v>
       </c>
-      <c r="D148" s="7">
+      <c r="D148" s="8">
         <v>3210714</v>
       </c>
       <c r="E148" s="4">
@@ -5940,10 +5948,10 @@
       <c r="F148" s="1">
         <v>44567.31075</v>
       </c>
-      <c r="G148" s="1">
+      <c r="G148" s="5">
         <v>777.22440087146</v>
       </c>
-      <c r="H148" s="5">
+      <c r="H148" s="6">
         <v>543.154423083469</v>
       </c>
     </row>
@@ -5957,19 +5965,19 @@
       <c r="C149" s="2">
         <v>26.666222</v>
       </c>
-      <c r="D149" s="7">
+      <c r="D149" s="8">
         <v>3146789</v>
       </c>
-      <c r="E149" s="12">
+      <c r="E149" s="14">
         <v>2619</v>
       </c>
       <c r="F149" s="1">
         <v>29311.2289</v>
       </c>
-      <c r="G149" s="1">
+      <c r="G149" s="5">
         <v>234.258095734385</v>
       </c>
-      <c r="H149" s="5">
+      <c r="H149" s="6">
         <v>830.431462390225</v>
       </c>
     </row>
@@ -5983,19 +5991,19 @@
       <c r="C150" s="2">
         <v>26.074286</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D150" s="8">
         <v>8291268</v>
       </c>
-      <c r="E150" s="12">
+      <c r="E150" s="14">
         <v>10020.02</v>
       </c>
       <c r="F150" s="1">
         <v>138247.2002</v>
       </c>
-      <c r="G150" s="1">
+      <c r="G150" s="5">
         <v>676.56205630355</v>
       </c>
-      <c r="H150" s="5">
+      <c r="H150" s="6">
         <v>516.290386645935</v>
       </c>
     </row>
@@ -6009,19 +6017,19 @@
       <c r="C151" s="2">
         <v>24.874452</v>
       </c>
-      <c r="D151" s="7">
+      <c r="D151" s="8">
         <v>8782285</v>
       </c>
-      <c r="E151" s="12">
+      <c r="E151" s="14">
         <v>10158.66</v>
       </c>
       <c r="F151" s="1">
         <v>147432.6747</v>
       </c>
-      <c r="G151" s="1">
+      <c r="G151" s="5">
         <v>797.302315024966</v>
       </c>
-      <c r="H151" s="5">
+      <c r="H151" s="6">
         <v>507.205182573292</v>
       </c>
     </row>
@@ -6035,19 +6043,19 @@
       <c r="C152" s="2">
         <v>24.479627</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D152" s="8">
         <v>5163970</v>
       </c>
-      <c r="E152" s="12">
+      <c r="E152" s="14">
         <v>6384.02</v>
       </c>
       <c r="F152" s="1">
         <v>106113.0868</v>
       </c>
-      <c r="G152" s="1">
+      <c r="G152" s="5">
         <v>3035.84362139918</v>
       </c>
-      <c r="H152" s="5">
+      <c r="H152" s="6">
         <v>443.257226637761</v>
       </c>
     </row>
@@ -6061,19 +6069,19 @@
       <c r="C153" s="2">
         <v>24.515297</v>
       </c>
-      <c r="D153" s="7">
+      <c r="D153" s="8">
         <v>5054328</v>
       </c>
-      <c r="E153" s="12">
+      <c r="E153" s="14">
         <v>4545.61</v>
       </c>
       <c r="F153" s="1">
         <v>79126.65135</v>
       </c>
-      <c r="G153" s="1">
+      <c r="G153" s="5">
         <v>392.173184357542</v>
       </c>
-      <c r="H153" s="5">
+      <c r="H153" s="6">
         <v>565.627935524605</v>
       </c>
     </row>
@@ -6087,19 +6095,19 @@
       <c r="C154" s="2">
         <v>27.382829</v>
       </c>
-      <c r="D154" s="7">
+      <c r="D154" s="8">
         <v>2680645</v>
       </c>
-      <c r="E154" s="12">
+      <c r="E154" s="14">
         <v>2007.4</v>
       </c>
       <c r="F154" s="1">
         <v>17758.84045</v>
       </c>
-      <c r="G154" s="1">
+      <c r="G154" s="5">
         <v>102.003234398782</v>
       </c>
-      <c r="H154" s="5">
+      <c r="H154" s="6">
         <v>580.500647603866</v>
       </c>
     </row>
@@ -6113,19 +6121,19 @@
       <c r="C155" s="2">
         <v>26.263455</v>
       </c>
-      <c r="D155" s="7">
+      <c r="D155" s="8">
         <v>2486450</v>
       </c>
-      <c r="E155" s="12">
+      <c r="E155" s="14">
         <v>2702.19</v>
       </c>
       <c r="F155" s="1">
         <v>14684.0209</v>
       </c>
-      <c r="G155" s="1">
+      <c r="G155" s="5">
         <v>108.27128238624</v>
       </c>
-      <c r="H155" s="5">
+      <c r="H155" s="6">
         <v>613.62339435791</v>
       </c>
     </row>
@@ -6139,19 +6147,19 @@
       <c r="C156" s="2">
         <v>25.075884</v>
       </c>
-      <c r="D156" s="7">
+      <c r="D156" s="8">
         <v>2723637</v>
       </c>
-      <c r="E156" s="12">
+      <c r="E156" s="14">
         <v>2870.9</v>
       </c>
       <c r="F156" s="1">
         <v>21692.0692</v>
       </c>
-      <c r="G156" s="1">
+      <c r="G156" s="5">
         <v>142.87557047684</v>
       </c>
-      <c r="H156" s="5">
+      <c r="H156" s="6">
         <v>479.437110313839</v>
       </c>
     </row>
@@ -6165,19 +6173,19 @@
       <c r="C157" s="2">
         <v>29.35648</v>
       </c>
-      <c r="D157" s="7">
+      <c r="D157" s="8">
         <v>5051922</v>
       </c>
-      <c r="E157" s="12">
+      <c r="E157" s="14">
         <v>4001.55</v>
       </c>
       <c r="F157" s="1">
         <v>17625.9262</v>
       </c>
-      <c r="G157" s="1">
+      <c r="G157" s="5">
         <v>335.14143558445</v>
       </c>
-      <c r="H157" s="5">
+      <c r="H157" s="6">
         <v>391.659731853907</v>
       </c>
     </row>
@@ -6191,19 +6199,19 @@
       <c r="C158" s="2">
         <v>29.117343</v>
       </c>
-      <c r="D158" s="7">
+      <c r="D158" s="8">
         <v>1517027</v>
       </c>
-      <c r="E158" s="12">
+      <c r="E158" s="14">
         <v>556.68</v>
       </c>
       <c r="F158" s="1">
         <v>7392.9143</v>
       </c>
-      <c r="G158" s="1">
+      <c r="G158" s="5">
         <v>159.117579190266</v>
       </c>
-      <c r="H158" s="5">
+      <c r="H158" s="6">
         <v>510.230293885176</v>
       </c>
     </row>
@@ -6217,19 +6225,19 @@
       <c r="C159" s="2">
         <v>26.894216</v>
       </c>
-      <c r="D159" s="7">
+      <c r="D159" s="8">
         <v>6645243</v>
       </c>
-      <c r="E159" s="12">
+      <c r="E159" s="14">
         <v>3508.5</v>
       </c>
       <c r="F159" s="1">
         <v>16012.91215</v>
       </c>
-      <c r="G159" s="1">
+      <c r="G159" s="5">
         <v>434.357997254723</v>
       </c>
-      <c r="H159" s="5">
+      <c r="H159" s="6">
         <v>475.346729371526</v>
       </c>
     </row>
@@ -6243,19 +6251,19 @@
       <c r="C160" s="2">
         <v>27.569813</v>
       </c>
-      <c r="D160" s="7">
+      <c r="D160" s="8">
         <v>4587594</v>
       </c>
-      <c r="E160" s="12">
+      <c r="E160" s="14">
         <v>1671.87</v>
       </c>
       <c r="F160" s="1">
         <v>10709.8592</v>
       </c>
-      <c r="G160" s="1">
+      <c r="G160" s="5">
         <v>166.385971275207</v>
       </c>
-      <c r="H160" s="5">
+      <c r="H160" s="6">
         <v>614.876754771603</v>
       </c>
     </row>
@@ -6269,19 +6277,19 @@
       <c r="C161" s="2">
         <v>28.228304</v>
       </c>
-      <c r="D161" s="6">
+      <c r="D161" s="7">
         <v>10047914</v>
       </c>
-      <c r="E161" s="12">
+      <c r="E161" s="14">
         <v>12142.52</v>
       </c>
       <c r="F161" s="1">
         <v>116080.9651</v>
       </c>
-      <c r="G161" s="1">
+      <c r="G161" s="5">
         <v>850.36509817197</v>
       </c>
-      <c r="H161" s="5">
+      <c r="H161" s="6">
         <v>326.070041474093</v>
       </c>
     </row>
@@ -6295,19 +6303,19 @@
       <c r="C162" s="2">
         <v>28.312592</v>
       </c>
-      <c r="D162" s="8">
+      <c r="D162" s="9">
         <v>2488105</v>
       </c>
-      <c r="E162" s="12">
+      <c r="E162" s="14">
         <v>725.11</v>
       </c>
       <c r="F162" s="1">
         <v>7134.56395</v>
       </c>
-      <c r="G162" s="1">
+      <c r="G162" s="5">
         <v>160.917410425559</v>
       </c>
-      <c r="H162" s="5">
+      <c r="H162" s="6">
         <v>810.911447918247</v>
       </c>
     </row>
@@ -6321,19 +6329,19 @@
       <c r="C163" s="2">
         <v>29.031446</v>
       </c>
-      <c r="D163" s="7">
+      <c r="D163" s="8">
         <v>5279102</v>
       </c>
-      <c r="E163" s="12">
+      <c r="E163" s="14">
         <v>3749.1</v>
       </c>
       <c r="F163" s="1">
         <v>20091.08015</v>
       </c>
-      <c r="G163" s="1">
+      <c r="G163" s="5">
         <v>290.427573306926</v>
       </c>
-      <c r="H163" s="5">
+      <c r="H163" s="6">
         <v>332.823610999973</v>
       </c>
     </row>
@@ -6347,19 +6355,19 @@
       <c r="C164" s="2">
         <v>27.83136</v>
       </c>
-      <c r="D164" s="6">
+      <c r="D164" s="7">
         <v>2726181</v>
       </c>
-      <c r="E164" s="12">
+      <c r="E164" s="14">
         <v>2343.1</v>
       </c>
       <c r="F164" s="1">
         <v>19846.7179</v>
       </c>
-      <c r="G164" s="1">
+      <c r="G164" s="5">
         <v>544.582700759089</v>
       </c>
-      <c r="H164" s="5">
+      <c r="H164" s="6">
         <v>543.054500448124</v>
       </c>
     </row>
@@ -6373,19 +6381,19 @@
       <c r="C165" s="2">
         <v>27.828862</v>
       </c>
-      <c r="D165" s="6">
+      <c r="D165" s="7">
         <v>3902738</v>
       </c>
-      <c r="E165" s="12">
+      <c r="E165" s="14">
         <v>3105.8</v>
       </c>
       <c r="F165" s="1">
         <v>20196.99845</v>
       </c>
-      <c r="G165" s="1">
+      <c r="G165" s="5">
         <v>346.971728307255</v>
       </c>
-      <c r="H165" s="5">
+      <c r="H165" s="6">
         <v>363.675059565973</v>
       </c>
     </row>
@@ -6399,19 +6407,19 @@
       <c r="C166" s="2">
         <v>25.770117</v>
       </c>
-      <c r="D166" s="7">
+      <c r="D166" s="8">
         <v>4667134</v>
       </c>
-      <c r="E166" s="12">
+      <c r="E166" s="14">
         <v>2503.07</v>
       </c>
       <c r="F166" s="1">
         <v>11119.78965</v>
       </c>
-      <c r="G166" s="1">
+      <c r="G166" s="5">
         <v>241.295315892876</v>
       </c>
-      <c r="H166" s="5">
+      <c r="H166" s="6">
         <v>527.598908540312</v>
       </c>
     </row>
@@ -6425,19 +6433,19 @@
       <c r="C167" s="2">
         <v>27.239528</v>
       </c>
-      <c r="D167" s="7">
+      <c r="D167" s="8">
         <v>6563520</v>
       </c>
-      <c r="E167" s="12">
+      <c r="E167" s="14">
         <v>2250.8</v>
       </c>
       <c r="F167" s="1">
         <v>12950.79905</v>
       </c>
-      <c r="G167" s="1">
+      <c r="G167" s="5">
         <v>315.099375900144</v>
       </c>
-      <c r="H167" s="5">
+      <c r="H167" s="6">
         <v>440.133730229252</v>
       </c>
     </row>
@@ -6451,19 +6459,19 @@
       <c r="C168" s="2">
         <v>26.419861</v>
       </c>
-      <c r="D168" s="7">
+      <c r="D168" s="8">
         <v>5289824</v>
       </c>
-      <c r="E168" s="12">
+      <c r="E168" s="14">
         <v>2107.7</v>
       </c>
       <c r="F168" s="1">
         <v>14962.8546</v>
       </c>
-      <c r="G168" s="1">
+      <c r="G168" s="5">
         <v>237.638095238095</v>
       </c>
-      <c r="H168" s="5">
+      <c r="H168" s="6">
         <v>486.541253499075</v>
       </c>
     </row>
@@ -6477,19 +6485,19 @@
       <c r="C169" s="2">
         <v>28.554853</v>
       </c>
-      <c r="D169" s="7">
+      <c r="D169" s="8">
         <v>3851564</v>
       </c>
-      <c r="E169" s="12">
+      <c r="E169" s="14">
         <v>1853.48</v>
       </c>
       <c r="F169" s="1">
         <v>7586.71915</v>
       </c>
-      <c r="G169" s="1">
+      <c r="G169" s="5">
         <v>312.626948051948</v>
       </c>
-      <c r="H169" s="5">
+      <c r="H169" s="6">
         <v>464.165245915791</v>
       </c>
     </row>
@@ -6503,19 +6511,19 @@
       <c r="C170" s="2">
         <v>27.699838</v>
       </c>
-      <c r="D170" s="7">
+      <c r="D170" s="8">
         <v>3826996</v>
       </c>
-      <c r="E170" s="12">
+      <c r="E170" s="14">
         <v>1679.94</v>
       </c>
       <c r="F170" s="1">
         <v>12341.9848</v>
       </c>
-      <c r="G170" s="1">
+      <c r="G170" s="5">
         <v>471.944259464792</v>
       </c>
-      <c r="H170" s="5">
+      <c r="H170" s="6">
         <v>865.083872043049</v>
       </c>
     </row>
@@ -6529,19 +6537,19 @@
       <c r="C171" s="2">
         <v>18.252865</v>
       </c>
-      <c r="D171" s="8">
+      <c r="D171" s="9">
         <v>1031396</v>
       </c>
-      <c r="E171" s="12">
+      <c r="E171" s="14">
         <v>695.41</v>
       </c>
       <c r="F171" s="1">
         <v>15692.42385</v>
       </c>
-      <c r="G171" s="1">
+      <c r="G171" s="5">
         <v>536.626430801249</v>
       </c>
-      <c r="H171" s="5">
+      <c r="H171" s="6">
         <v>658.470542557628</v>
       </c>
     </row>
@@ -6555,19 +6563,19 @@
       <c r="C172" s="2">
         <v>20.045805</v>
       </c>
-      <c r="D172" s="8">
+      <c r="D172" s="9">
         <v>2873358</v>
       </c>
-      <c r="E172" s="12">
+      <c r="E172" s="14">
         <v>1791.58</v>
       </c>
       <c r="F172" s="1">
         <v>36931.41805</v>
       </c>
-      <c r="G172" s="1">
+      <c r="G172" s="5">
         <v>1250.9177187636</v>
       </c>
-      <c r="H172" s="5">
+      <c r="H172" s="6">
         <v>480.307326493933</v>
       </c>
     </row>
@@ -6581,19 +6589,19 @@
       <c r="C173" s="2">
         <v>31.981269</v>
       </c>
-      <c r="D173" s="6">
+      <c r="D173" s="7">
         <v>7726635</v>
       </c>
-      <c r="E173" s="12">
+      <c r="E173" s="14">
         <v>10036.3</v>
       </c>
       <c r="F173" s="1">
         <v>117130.1344</v>
       </c>
-      <c r="G173" s="1">
+      <c r="G173" s="5">
         <v>732.451891174519</v>
       </c>
-      <c r="H173" s="5">
+      <c r="H173" s="6">
         <v>449.916802008708</v>
       </c>
     </row>
@@ -6607,7 +6615,7 @@
       <c r="C174" s="2">
         <v>34.596639</v>
       </c>
-      <c r="D174" s="6">
+      <c r="D174" s="7">
         <v>4599360</v>
       </c>
       <c r="E174" s="4">
@@ -6616,10 +6624,10 @@
       <c r="F174" s="1">
         <v>42108.77675</v>
       </c>
-      <c r="G174" s="1">
+      <c r="G174" s="5">
         <v>603.90756302521</v>
       </c>
-      <c r="H174" s="5">
+      <c r="H174" s="6">
         <v>560.470176102433</v>
       </c>
     </row>
@@ -6633,19 +6641,19 @@
       <c r="C175" s="2">
         <v>33.963186</v>
       </c>
-      <c r="D175" s="6">
+      <c r="D175" s="7">
         <v>4986192</v>
       </c>
-      <c r="E175" s="12">
+      <c r="E175" s="14">
         <v>3262.37</v>
       </c>
       <c r="F175" s="1">
         <v>41076.4966</v>
       </c>
-      <c r="G175" s="1">
+      <c r="G175" s="5">
         <v>584.959174096668</v>
       </c>
-      <c r="H175" s="5">
+      <c r="H175" s="6">
         <v>641.312910552758</v>
       </c>
     </row>
@@ -6659,19 +6667,19 @@
       <c r="C176" s="2">
         <v>32.456692</v>
       </c>
-      <c r="D176" s="6">
+      <c r="D176" s="7">
         <v>4512762</v>
       </c>
-      <c r="E176" s="12">
+      <c r="E176" s="14">
         <v>5312.77</v>
       </c>
       <c r="F176" s="1">
         <v>64961.8273</v>
       </c>
-      <c r="G176" s="1">
+      <c r="G176" s="5">
         <v>779.675535590878</v>
       </c>
-      <c r="H176" s="5">
+      <c r="H176" s="6">
         <v>557.148154352626</v>
       </c>
     </row>
@@ -6685,19 +6693,19 @@
       <c r="C177" s="2">
         <v>31.811313</v>
       </c>
-      <c r="D177" s="6">
+      <c r="D177" s="7">
         <v>5278121</v>
       </c>
-      <c r="E177" s="12">
+      <c r="E177" s="14">
         <v>7805.3</v>
       </c>
       <c r="F177" s="1">
         <v>97297.3267</v>
       </c>
-      <c r="G177" s="1">
+      <c r="G177" s="5">
         <v>1207.2554894785</v>
       </c>
-      <c r="H177" s="5">
+      <c r="H177" s="6">
         <v>648.085275389799</v>
       </c>
     </row>
@@ -6711,19 +6719,19 @@
       <c r="C178" s="2">
         <v>32.059344</v>
       </c>
-      <c r="D178" s="6">
+      <c r="D178" s="7">
         <v>9314685</v>
       </c>
-      <c r="E178" s="12">
+      <c r="E178" s="14">
         <v>14817.95</v>
       </c>
       <c r="F178" s="1">
         <v>163331.623</v>
       </c>
-      <c r="G178" s="1">
+      <c r="G178" s="5">
         <v>1414.10126005769</v>
       </c>
-      <c r="H178" s="5">
+      <c r="H178" s="6">
         <v>419.443985166639</v>
       </c>
     </row>
@@ -6737,19 +6745,19 @@
       <c r="C179" s="2">
         <v>34.204224</v>
       </c>
-      <c r="D179" s="6">
+      <c r="D179" s="7">
         <v>9083790</v>
       </c>
-      <c r="E179" s="12">
+      <c r="E179" s="14">
         <v>7319.77</v>
       </c>
       <c r="F179" s="1">
         <v>65867.60125</v>
       </c>
-      <c r="G179" s="1">
+      <c r="G179" s="5">
         <v>772.102847428814</v>
       </c>
-      <c r="H179" s="5">
+      <c r="H179" s="6">
         <v>507.024127807294</v>
       </c>
     </row>
@@ -6763,19 +6771,19 @@
       <c r="C180" s="2">
         <v>31.299758</v>
       </c>
-      <c r="D180" s="6">
+      <c r="D180" s="7">
         <v>12748262</v>
       </c>
-      <c r="E180" s="12">
+      <c r="E180" s="14">
         <v>20170.5</v>
       </c>
       <c r="F180" s="1">
         <v>352826.3654</v>
       </c>
-      <c r="G180" s="1">
+      <c r="G180" s="5">
         <v>1472.59581841285</v>
       </c>
-      <c r="H180" s="5">
+      <c r="H180" s="6">
         <v>765.712302620163</v>
       </c>
     </row>
@@ -6789,19 +6797,19 @@
       <c r="C181" s="2">
         <v>32.394404</v>
       </c>
-      <c r="D181" s="6">
+      <c r="D181" s="7">
         <v>4559797</v>
       </c>
-      <c r="E181" s="12">
+      <c r="E181" s="14">
         <v>6048.33</v>
       </c>
       <c r="F181" s="1">
         <v>62550.66785</v>
       </c>
-      <c r="G181" s="1">
+      <c r="G181" s="5">
         <v>691.821726596875</v>
       </c>
-      <c r="H181" s="5">
+      <c r="H181" s="6">
         <v>428.88483267282</v>
       </c>
     </row>
@@ -6815,19 +6823,19 @@
       <c r="C182" s="2">
         <v>32.188141</v>
       </c>
-      <c r="D182" s="6">
+      <c r="D182" s="7">
         <v>3210418</v>
       </c>
-      <c r="E182" s="12">
+      <c r="E182" s="14">
         <v>4220.09</v>
       </c>
       <c r="F182" s="1">
         <v>56108.34145</v>
       </c>
-      <c r="G182" s="1">
+      <c r="G182" s="5">
         <v>836.046354166667</v>
       </c>
-      <c r="H182" s="5">
+      <c r="H182" s="6">
         <v>626.503226234512</v>
       </c>
     </row>
@@ -6841,19 +6849,19 @@
       <c r="C183" s="2">
         <v>31.491064</v>
       </c>
-      <c r="D183" s="6">
+      <c r="D183" s="7">
         <v>7462135</v>
       </c>
-      <c r="E183" s="12">
+      <c r="E183" s="14">
         <v>12370.48</v>
       </c>
       <c r="F183" s="1">
         <v>133338.9395</v>
       </c>
-      <c r="G183" s="1">
+      <c r="G183" s="5">
         <v>1612.7371947266</v>
       </c>
-      <c r="H183" s="5">
+      <c r="H183" s="6">
         <v>606.94492048813</v>
       </c>
     </row>
@@ -6867,19 +6875,19 @@
       <c r="C184" s="2">
         <v>33.348176</v>
       </c>
-      <c r="D184" s="6">
+      <c r="D184" s="7">
         <v>6709629</v>
       </c>
-      <c r="E184" s="12">
+      <c r="E184" s="14">
         <v>5953.4</v>
       </c>
       <c r="F184" s="1">
         <v>78726.6002</v>
       </c>
-      <c r="G184" s="1">
+      <c r="G184" s="5">
         <v>396.292540310673</v>
       </c>
-      <c r="H184" s="5">
+      <c r="H184" s="6">
         <v>550.424967245608</v>
       </c>
     </row>
@@ -6893,19 +6901,19 @@
       <c r="C185" s="2">
         <v>33.551495</v>
       </c>
-      <c r="D185" s="7">
+      <c r="D185" s="8">
         <v>4556230</v>
       </c>
-      <c r="E185" s="12">
+      <c r="E185" s="14">
         <v>4025.37</v>
       </c>
       <c r="F185" s="1">
         <v>51482.8671</v>
       </c>
-      <c r="G185" s="1">
+      <c r="G185" s="5">
         <v>454.260219341974</v>
       </c>
-      <c r="H185" s="5">
+      <c r="H185" s="6">
         <v>475.136447084367</v>
       </c>
     </row>
@@ -6919,7 +6927,7 @@
       <c r="C186" s="2">
         <v>36.473448</v>
       </c>
-      <c r="D186" s="7">
+      <c r="D186" s="8">
         <v>1358471</v>
       </c>
       <c r="E186" s="4">
@@ -6928,10 +6936,10 @@
       <c r="F186" s="1">
         <v>9583.50285</v>
       </c>
-      <c r="G186" s="1">
+      <c r="G186" s="5">
         <v>131.380174081238</v>
       </c>
-      <c r="H186" s="5">
+      <c r="H186" s="6">
         <v>2712.00932763311</v>
       </c>
     </row>
@@ -6945,7 +6953,7 @@
       <c r="C187" s="2">
         <v>36.616621</v>
       </c>
-      <c r="D187" s="7">
+      <c r="D187" s="8">
         <v>2467965</v>
       </c>
       <c r="E187" s="4">
@@ -6954,10 +6962,10 @@
       <c r="F187" s="1">
         <v>26046.7611</v>
       </c>
-      <c r="G187" s="1">
+      <c r="G187" s="5">
         <v>324.433416589983</v>
       </c>
-      <c r="H187" s="5">
+      <c r="H187" s="6">
         <v>3257.73281475331</v>
       </c>
     </row>
@@ -6971,19 +6979,19 @@
       <c r="C188" s="2">
         <v>23.90307</v>
       </c>
-      <c r="D188" s="7">
+      <c r="D188" s="8">
         <v>3571505</v>
       </c>
-      <c r="E188" s="12">
+      <c r="E188" s="14">
         <v>1333.73</v>
       </c>
       <c r="F188" s="1">
         <v>18492.8175</v>
       </c>
-      <c r="G188" s="1">
+      <c r="G188" s="5">
         <v>98.6549085685874</v>
       </c>
-      <c r="H188" s="5">
+      <c r="H188" s="6">
         <v>2980.78096766212</v>
       </c>
     </row>
@@ -6997,7 +7005,7 @@
       <c r="C189" s="2">
         <v>21.980894</v>
       </c>
-      <c r="D189" s="8">
+      <c r="D189" s="9">
         <v>3302238</v>
       </c>
       <c r="E189" s="4">
@@ -7006,10 +7014,10 @@
       <c r="F189" s="1">
         <v>17281.4262</v>
       </c>
-      <c r="G189" s="1">
+      <c r="G189" s="5">
         <v>270.963978009354</v>
       </c>
-      <c r="H189" s="5">
+      <c r="H189" s="6">
         <v>736.933341018473</v>
       </c>
     </row>
@@ -7023,19 +7031,19 @@
       <c r="C190" s="2">
         <v>21.481305</v>
       </c>
-      <c r="D190" s="8">
+      <c r="D190" s="9">
         <v>1853227</v>
       </c>
-      <c r="E190" s="22">
+      <c r="E190" s="24">
         <v>1276.91</v>
       </c>
       <c r="F190" s="1">
         <v>16682.23155</v>
       </c>
-      <c r="G190" s="1">
+      <c r="G190" s="5">
         <v>464.5843569817</v>
       </c>
-      <c r="H190" s="5">
+      <c r="H190" s="6">
         <v>689.952306740491</v>
       </c>
     </row>
@@ -7049,7 +7057,7 @@
       <c r="C191" s="2">
         <v>24.326442</v>
       </c>
-      <c r="D191" s="7">
+      <c r="D191" s="8">
         <v>4157934</v>
       </c>
       <c r="E191" s="4">
@@ -7058,10 +7066,10 @@
       <c r="F191" s="1">
         <v>49474.05025</v>
       </c>
-      <c r="G191" s="1">
+      <c r="G191" s="5">
         <v>223.580900145185</v>
       </c>
-      <c r="H191" s="5">
+      <c r="H191" s="6">
         <v>595.485278286653</v>
       </c>
     </row>
@@ -7075,19 +7083,19 @@
       <c r="C192" s="2">
         <v>23.476733</v>
       </c>
-      <c r="D192" s="7">
+      <c r="D192" s="8">
         <v>2820977</v>
       </c>
-      <c r="E192" s="12">
+      <c r="E192" s="14">
         <v>1081.34</v>
       </c>
       <c r="F192" s="1">
         <v>9845.3835</v>
       </c>
-      <c r="G192" s="1">
+      <c r="G192" s="5">
         <v>224.385698377346</v>
       </c>
-      <c r="H192" s="5">
+      <c r="H192" s="6">
         <v>741.067564318346</v>
       </c>
     </row>
@@ -7101,19 +7109,19 @@
       <c r="C193" s="2">
         <v>25.235615</v>
       </c>
-      <c r="D193" s="23">
+      <c r="D193" s="25">
         <v>4931137</v>
       </c>
-      <c r="E193" s="12">
+      <c r="E193" s="14">
         <v>2130.41</v>
       </c>
       <c r="F193" s="1">
         <v>19960.16095</v>
       </c>
-      <c r="G193" s="1">
+      <c r="G193" s="5">
         <v>178.231720099758</v>
       </c>
-      <c r="H193" s="5">
+      <c r="H193" s="6">
         <v>685.457259400773</v>
       </c>
     </row>
@@ -7127,19 +7135,19 @@
       <c r="C194" s="2">
         <v>24.404182</v>
       </c>
-      <c r="D194" s="8">
+      <c r="D194" s="9">
         <v>2007858</v>
       </c>
-      <c r="E194" s="12">
+      <c r="E194" s="14">
         <v>753.95</v>
       </c>
       <c r="F194" s="1">
         <v>7792.79475</v>
       </c>
-      <c r="G194" s="1">
+      <c r="G194" s="5">
         <v>170.837913724156</v>
       </c>
-      <c r="H194" s="5">
+      <c r="H194" s="6">
         <v>1064.50693016778</v>
       </c>
     </row>
@@ -7153,19 +7161,19 @@
       <c r="C195" s="2">
         <v>23.750105</v>
       </c>
-      <c r="D195" s="8">
+      <c r="D195" s="9">
         <v>2074611</v>
       </c>
-      <c r="E195" s="12">
+      <c r="E195" s="14">
         <v>705.72</v>
       </c>
       <c r="F195" s="1">
         <v>8760.96795</v>
       </c>
-      <c r="G195" s="1">
+      <c r="G195" s="5">
         <v>155.029965625467</v>
       </c>
-      <c r="H195" s="5">
+      <c r="H195" s="6">
         <v>1892.89803321431</v>
       </c>
     </row>
@@ -7179,19 +7187,19 @@
       <c r="C196" s="2">
         <v>24.692906</v>
       </c>
-      <c r="D196" s="8">
+      <c r="D196" s="9">
         <v>3417945</v>
       </c>
-      <c r="E196" s="12">
+      <c r="E196" s="14">
         <v>927.71</v>
       </c>
       <c r="F196" s="1">
         <v>8452.48585</v>
       </c>
-      <c r="G196" s="1">
+      <c r="G196" s="5">
         <v>102.101356195483</v>
       </c>
-      <c r="H196" s="5">
+      <c r="H196" s="6">
         <v>910.442918584471</v>
       </c>
     </row>
@@ -7205,19 +7213,19 @@
       <c r="C197" s="2">
         <v>22.654001</v>
       </c>
-      <c r="D197" s="7">
+      <c r="D197" s="8">
         <v>5796766</v>
       </c>
-      <c r="E197" s="12">
+      <c r="E197" s="14">
         <v>1761.08</v>
       </c>
       <c r="F197" s="1">
         <v>15824.48215</v>
       </c>
-      <c r="G197" s="1">
+      <c r="G197" s="5">
         <v>452.024797255147</v>
       </c>
-      <c r="H197" s="5">
+      <c r="H197" s="6">
         <v>565.10436777432</v>
       </c>
     </row>
@@ -7231,19 +7239,19 @@
       <c r="C198" s="2">
         <v>22.8177</v>
       </c>
-      <c r="D198" s="7">
+      <c r="D198" s="8">
         <v>8741584</v>
       </c>
-      <c r="E198" s="12">
+      <c r="E198" s="14">
         <v>4726.34</v>
       </c>
       <c r="F198" s="1">
         <v>82615.42315</v>
       </c>
-      <c r="G198" s="1">
+      <c r="G198" s="5">
         <v>392.968487300517</v>
       </c>
-      <c r="H198" s="5">
+      <c r="H198" s="6">
         <v>529.611073261763</v>
       </c>
     </row>
@@ -7257,19 +7265,19 @@
       <c r="C199" s="2">
         <v>23.11182</v>
       </c>
-      <c r="D199" s="7">
+      <c r="D199" s="8">
         <v>4316262</v>
       </c>
-      <c r="E199" s="12">
+      <c r="E199" s="14">
         <v>1352.73</v>
       </c>
       <c r="F199" s="1">
         <v>12180.78385</v>
       </c>
-      <c r="G199" s="1">
+      <c r="G199" s="5">
         <v>407.117713638936</v>
       </c>
-      <c r="H199" s="5">
+      <c r="H199" s="6">
         <v>790.701026812446</v>
       </c>
     </row>
@@ -7283,19 +7291,19 @@
       <c r="C200" s="2">
         <v>22.377139</v>
       </c>
-      <c r="D200" s="8">
+      <c r="D200" s="9">
         <v>2088692</v>
       </c>
-      <c r="E200" s="12">
+      <c r="E200" s="14">
         <v>809</v>
       </c>
       <c r="F200" s="1">
         <v>9776.5544</v>
       </c>
-      <c r="G200" s="1">
+      <c r="G200" s="5">
         <v>120.510731594738</v>
       </c>
-      <c r="H200" s="5">
+      <c r="H200" s="6">
         <v>1044.30160692213</v>
       </c>
     </row>
@@ -7309,19 +7317,19 @@
       <c r="C201" s="2">
         <v>21.686732</v>
       </c>
-      <c r="D201" s="7">
+      <c r="D201" s="8">
         <v>1046068</v>
       </c>
-      <c r="E201" s="12">
+      <c r="E201" s="14">
         <v>732.81</v>
       </c>
       <c r="F201" s="1">
         <v>14224.38925</v>
       </c>
-      <c r="G201" s="1">
+      <c r="G201" s="5">
         <v>167.692850272523</v>
       </c>
-      <c r="H201" s="5">
+      <c r="H201" s="6">
         <v>1282.97648776627</v>
       </c>
     </row>
@@ -7335,19 +7343,19 @@
       <c r="C202" s="2">
         <v>38.984632</v>
       </c>
-      <c r="D202" s="7">
+      <c r="D202" s="8">
         <v>751389</v>
       </c>
-      <c r="E202" s="12">
+      <c r="E202" s="14">
         <v>541.62</v>
       </c>
       <c r="F202" s="1">
         <v>7837.60255</v>
       </c>
-      <c r="G202" s="1">
+      <c r="G202" s="5">
         <v>141.504519774011</v>
       </c>
-      <c r="H202" s="5">
+      <c r="H202" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7361,19 +7369,19 @@
       <c r="C203" s="2">
         <v>36.01628</v>
       </c>
-      <c r="D203" s="7">
+      <c r="D203" s="8">
         <v>1142142</v>
       </c>
-      <c r="E203" s="12">
+      <c r="E203" s="14">
         <v>352.46</v>
       </c>
       <c r="F203" s="1">
         <v>8107.05135</v>
       </c>
-      <c r="G203" s="1">
+      <c r="G203" s="5">
         <v>108.537679369001</v>
       </c>
-      <c r="H203" s="5">
+      <c r="H203" s="6">
         <v>1146.42228905408</v>
       </c>
     </row>
@@ -7387,7 +7395,7 @@
       <c r="C204" s="2">
         <v>37.500185</v>
       </c>
-      <c r="D204" s="7">
+      <c r="D204" s="8">
         <v>1067336</v>
       </c>
       <c r="E204" s="4">
@@ -7396,10 +7404,10 @@
       <c r="F204" s="1">
         <v>7929.5992</v>
       </c>
-      <c r="G204" s="1">
+      <c r="G204" s="5">
         <v>60.7753103291197</v>
       </c>
-      <c r="H204" s="5">
+      <c r="H204" s="6">
         <v>5438.54696584302</v>
       </c>
     </row>
@@ -7413,7 +7421,7 @@
       <c r="C205" s="2">
         <v>37.997755</v>
       </c>
-      <c r="D205" s="7">
+      <c r="D205" s="8">
         <v>1382713</v>
       </c>
       <c r="E205" s="4">
@@ -7422,10 +7430,10 @@
       <c r="F205" s="1">
         <v>12177.2823</v>
       </c>
-      <c r="G205" s="1">
+      <c r="G205" s="5">
         <v>82.5106217925767</v>
       </c>
-      <c r="H205" s="5">
+      <c r="H205" s="6">
         <v>2670.52607877511</v>
       </c>
     </row>
@@ -7439,19 +7447,19 @@
       <c r="C206" s="2">
         <v>38.487783</v>
       </c>
-      <c r="D206" s="7">
+      <c r="D206" s="8">
         <v>2859074</v>
       </c>
-      <c r="E206" s="12">
+      <c r="E206" s="14">
         <v>1964.37</v>
       </c>
       <c r="F206" s="1">
         <v>57689.8385</v>
       </c>
-      <c r="G206" s="1">
+      <c r="G206" s="5">
         <v>316.794903047091</v>
       </c>
-      <c r="H206" s="5">
+      <c r="H206" s="6">
         <v>1990.63414733477</v>
       </c>
     </row>
@@ -7465,7 +7473,7 @@
       <c r="C207" s="2">
         <v>30.746814</v>
       </c>
-      <c r="D207" s="6">
+      <c r="D207" s="7">
         <v>5400868</v>
       </c>
       <c r="E207" s="4">
@@ -7474,10 +7482,10 @@
       <c r="F207" s="1">
         <v>99305.2024</v>
       </c>
-      <c r="G207" s="1">
+      <c r="G207" s="5">
         <v>1278.91735732891</v>
       </c>
-      <c r="H207" s="5">
+      <c r="H207" s="6">
         <v>976.538428030028</v>
       </c>
     </row>
@@ -7491,19 +7499,19 @@
       <c r="C208" s="2">
         <v>29.985578</v>
       </c>
-      <c r="D208" s="6">
+      <c r="D208" s="7">
         <v>1157817</v>
       </c>
-      <c r="E208" s="12">
+      <c r="E208" s="14">
         <v>1512.1</v>
       </c>
       <c r="F208" s="1">
         <v>44765.4321</v>
       </c>
-      <c r="G208" s="1">
+      <c r="G208" s="5">
         <v>793.568882796436</v>
       </c>
-      <c r="H208" s="5">
+      <c r="H208" s="6">
         <v>433.142649295682</v>
       </c>
     </row>
@@ -7517,19 +7525,19 @@
       <c r="C209" s="2">
         <v>29.860258</v>
       </c>
-      <c r="D209" s="6">
+      <c r="D209" s="7">
         <v>9404283</v>
       </c>
-      <c r="E209" s="12">
+      <c r="E209" s="14">
         <v>12408.7</v>
       </c>
       <c r="F209" s="1">
         <v>229020.3108</v>
       </c>
-      <c r="G209" s="1">
+      <c r="G209" s="5">
         <v>958.056540342298</v>
       </c>
-      <c r="H209" s="5">
+      <c r="H209" s="6">
         <v>651.093668152183</v>
       </c>
     </row>
@@ -7543,19 +7551,19 @@
       <c r="C210" s="2">
         <v>28.655716</v>
       </c>
-      <c r="D210" s="6">
+      <c r="D210" s="7">
         <v>6622888</v>
       </c>
-      <c r="E210" s="12">
+      <c r="E210" s="14">
         <v>5262.72</v>
       </c>
       <c r="F210" s="1">
         <v>92797.5288</v>
       </c>
-      <c r="G210" s="1">
+      <c r="G210" s="5">
         <v>658.993830845771</v>
       </c>
-      <c r="H210" s="5">
+      <c r="H210" s="6">
         <v>629.372833819774</v>
       </c>
     </row>
@@ -7569,19 +7577,19 @@
       <c r="C211" s="2">
         <v>27.993849</v>
       </c>
-      <c r="D211" s="6">
+      <c r="D211" s="7">
         <v>9572903</v>
       </c>
-      <c r="E211" s="12">
+      <c r="E211" s="14">
         <v>6870.9</v>
       </c>
       <c r="F211" s="1">
         <v>130892.4637</v>
       </c>
-      <c r="G211" s="1">
+      <c r="G211" s="5">
         <v>790.495706028076</v>
       </c>
-      <c r="H211" s="5">
+      <c r="H211" s="6">
         <v>641.949235180253</v>
       </c>
     </row>
@@ -7595,19 +7603,19 @@
       <c r="C212" s="2">
         <v>28.467694</v>
       </c>
-      <c r="D212" s="7">
+      <c r="D212" s="8">
         <v>2507396</v>
       </c>
-      <c r="E212" s="12">
+      <c r="E212" s="14">
         <v>1540.02</v>
       </c>
       <c r="F212" s="1">
         <v>25129.56805</v>
       </c>
-      <c r="G212" s="1">
+      <c r="G212" s="5">
         <v>145.145933429812</v>
       </c>
-      <c r="H212" s="5">
+      <c r="H212" s="6">
         <v>729.891819586759</v>
       </c>
     </row>
@@ -7621,19 +7629,19 @@
       <c r="C213" s="2">
         <v>29.079195</v>
       </c>
-      <c r="D213" s="6">
+      <c r="D213" s="7">
         <v>7050683</v>
       </c>
-      <c r="E213" s="12">
+      <c r="E213" s="14">
         <v>4703.95</v>
       </c>
       <c r="F213" s="1">
         <v>116523.1358</v>
       </c>
-      <c r="G213" s="1">
+      <c r="G213" s="5">
         <v>644.368762566258</v>
       </c>
-      <c r="H213" s="5">
+      <c r="H213" s="6">
         <v>839.01423271931</v>
       </c>
     </row>
@@ -7647,19 +7655,19 @@
       <c r="C214" s="2">
         <v>30.894178</v>
       </c>
-      <c r="D214" s="6">
+      <c r="D214" s="7">
         <v>3367579</v>
       </c>
-      <c r="E214" s="12">
+      <c r="E214" s="14">
         <v>3201.4</v>
       </c>
       <c r="F214" s="1">
         <v>52183.28375</v>
       </c>
-      <c r="G214" s="1">
+      <c r="G214" s="5">
         <v>578.621821305842</v>
       </c>
-      <c r="H214" s="5">
+      <c r="H214" s="6">
         <v>921.535578184544</v>
       </c>
     </row>
@@ -7673,19 +7681,19 @@
       <c r="C215" s="2">
         <v>30.051549</v>
       </c>
-      <c r="D215" s="6">
+      <c r="D215" s="7">
         <v>5270977</v>
       </c>
-      <c r="E215" s="12">
+      <c r="E215" s="14">
         <v>6001</v>
       </c>
       <c r="F215" s="1">
         <v>81408.21195</v>
       </c>
-      <c r="G215" s="1">
+      <c r="G215" s="5">
         <v>636.668317429641</v>
       </c>
-      <c r="H215" s="5">
+      <c r="H215" s="6">
         <v>770.482086318947</v>
       </c>
     </row>
@@ -7699,19 +7707,19 @@
       <c r="C216" s="2">
         <v>28.970229</v>
       </c>
-      <c r="D216" s="9">
+      <c r="D216" s="10">
         <v>2276184</v>
       </c>
-      <c r="E216" s="12">
+      <c r="E216" s="14">
         <v>1639.12</v>
       </c>
       <c r="F216" s="1">
         <v>20406.8403</v>
       </c>
-      <c r="G216" s="1">
+      <c r="G216" s="5">
         <v>257.341322781232</v>
       </c>
-      <c r="H216" s="5">
+      <c r="H216" s="6">
         <v>1124.05925130558</v>
       </c>
     </row>
@@ -7725,19 +7733,19 @@
       <c r="C217" s="2">
         <v>30.246026</v>
       </c>
-      <c r="D217" s="6">
+      <c r="D217" s="7">
         <v>11936010</v>
       </c>
-      <c r="E217" s="12">
+      <c r="E217" s="14">
         <v>16106</v>
       </c>
       <c r="F217" s="1">
         <v>208177.4429</v>
       </c>
-      <c r="G217" s="1">
+      <c r="G217" s="5">
         <v>708.242449415534</v>
       </c>
-      <c r="H217" s="5">
+      <c r="H217" s="6">
         <v>507.078293803551</v>
       </c>
     </row>
@@ -7751,19 +7759,19 @@
       <c r="C218" s="2">
         <v>39.63068</v>
       </c>
-      <c r="D218" s="7">
+      <c r="D218" s="8">
         <v>7717983</v>
       </c>
-      <c r="E218" s="12">
+      <c r="E218" s="14">
         <v>7210.9</v>
       </c>
       <c r="F218" s="1">
         <v>96175.6791</v>
       </c>
-      <c r="G218" s="1">
+      <c r="G218" s="5">
         <v>543.596492463727</v>
       </c>
-      <c r="H218" s="5">
+      <c r="H218" s="6">
         <v>1194.76930757603</v>
       </c>
     </row>
@@ -7777,19 +7785,19 @@
       <c r="C219" s="2">
         <v>39.538304</v>
       </c>
-      <c r="D219" s="7">
+      <c r="D219" s="8">
         <v>5464087</v>
       </c>
-      <c r="E219" s="15">
+      <c r="E219" s="17">
         <v>3301.1</v>
       </c>
       <c r="F219" s="1">
         <v>54497.08365</v>
       </c>
-      <c r="G219" s="1">
+      <c r="G219" s="5">
         <v>851.236485433868</v>
       </c>
-      <c r="H219" s="5">
+      <c r="H219" s="6">
         <v>868.532610342007</v>
       </c>
     </row>
@@ -7803,19 +7811,19 @@
       <c r="C220" s="2">
         <v>39.888243</v>
       </c>
-      <c r="D220" s="8">
+      <c r="D220" s="9">
         <v>3136879</v>
       </c>
-      <c r="E220" s="12">
+      <c r="E220" s="14">
         <v>1685.8</v>
       </c>
       <c r="F220" s="1">
         <v>26720.90715</v>
       </c>
-      <c r="G220" s="1">
+      <c r="G220" s="5">
         <v>402.060881825173</v>
       </c>
-      <c r="H220" s="5">
+      <c r="H220" s="6">
         <v>892.442757147942</v>
       </c>
     </row>
@@ -7829,19 +7837,19 @@
       <c r="C221" s="2">
         <v>36.625849</v>
       </c>
-      <c r="D221" s="7">
+      <c r="D221" s="8">
         <v>9413990</v>
       </c>
-      <c r="E221" s="12">
+      <c r="E221" s="14">
         <v>3636.6</v>
       </c>
       <c r="F221" s="1">
         <v>30394.2012</v>
       </c>
-      <c r="G221" s="1">
+      <c r="G221" s="5">
         <v>780.272689598011</v>
       </c>
-      <c r="H221" s="5">
+      <c r="H221" s="6">
         <v>1175.86179398339</v>
       </c>
     </row>
@@ -7855,19 +7863,19 @@
       <c r="C222" s="2">
         <v>40.952942</v>
       </c>
-      <c r="D222" s="7">
+      <c r="D222" s="8">
         <v>3354444</v>
       </c>
-      <c r="E222" s="12">
+      <c r="E222" s="14">
         <v>1550.3</v>
       </c>
       <c r="F222" s="1">
         <v>15471.55735</v>
       </c>
-      <c r="G222" s="1">
+      <c r="G222" s="5">
         <v>84.944137756394</v>
       </c>
-      <c r="H222" s="5">
+      <c r="H222" s="6">
         <v>1218.09649745211</v>
       </c>
     </row>
@@ -7881,19 +7889,19 @@
       <c r="C223" s="2">
         <v>38.304676</v>
       </c>
-      <c r="D223" s="7">
+      <c r="D223" s="8">
         <v>7300783</v>
       </c>
-      <c r="E223" s="12">
+      <c r="E223" s="14">
         <v>3699.9</v>
       </c>
       <c r="F223" s="1">
         <v>48022.9852</v>
       </c>
-      <c r="G223" s="1">
+      <c r="G223" s="5">
         <v>510.401496085011</v>
       </c>
-      <c r="H223" s="5">
+      <c r="H223" s="6">
         <v>976.6977485878</v>
       </c>
     </row>
@@ -7907,19 +7915,19 @@
       <c r="C224" s="2">
         <v>37.060227</v>
       </c>
-      <c r="D224" s="7">
+      <c r="D224" s="8">
         <v>7111106</v>
       </c>
-      <c r="E224" s="12">
+      <c r="E224" s="14">
         <v>2200.4</v>
       </c>
       <c r="F224" s="1">
         <v>23333.62205</v>
       </c>
-      <c r="G224" s="1">
+      <c r="G224" s="5">
         <v>571.95415426687</v>
       </c>
-      <c r="H224" s="5">
+      <c r="H224" s="6">
         <v>1329.89501908744</v>
       </c>
     </row>
@@ -7933,19 +7941,19 @@
       <c r="C225" s="2">
         <v>37.739367</v>
       </c>
-      <c r="D225" s="7">
+      <c r="D225" s="8">
         <v>4212933</v>
       </c>
-      <c r="E225" s="12">
+      <c r="E225" s="14">
         <v>1560.2</v>
       </c>
       <c r="F225" s="1">
         <v>11429.06745</v>
       </c>
-      <c r="G225" s="1">
+      <c r="G225" s="5">
         <v>476.737920108634</v>
       </c>
-      <c r="H225" s="5">
+      <c r="H225" s="6">
         <v>1036.25432636841</v>
       </c>
     </row>
@@ -7959,19 +7967,19 @@
       <c r="C226" s="2">
         <v>40.768931</v>
       </c>
-      <c r="D226" s="7">
+      <c r="D226" s="8">
         <v>4118908</v>
       </c>
-      <c r="E226" s="12">
+      <c r="E226" s="14">
         <v>1600.1</v>
       </c>
       <c r="F226" s="1">
         <v>23466.8346</v>
       </c>
-      <c r="G226" s="1">
+      <c r="G226" s="5">
         <v>111.935973041281</v>
       </c>
-      <c r="H226" s="5">
+      <c r="H226" s="6">
         <v>1106.78957565152</v>
       </c>
     </row>
@@ -7985,19 +7993,19 @@
       <c r="C227" s="2">
         <v>38.874476</v>
       </c>
-      <c r="D227" s="7">
+      <c r="D227" s="8">
         <v>9242610</v>
       </c>
-      <c r="E227" s="12">
+      <c r="E227" s="14">
         <v>3353.3</v>
       </c>
       <c r="F227" s="1">
         <v>50625.71875</v>
       </c>
-      <c r="G227" s="1">
+      <c r="G227" s="5">
         <v>416.615280594997</v>
       </c>
-      <c r="H227" s="5">
+      <c r="H227" s="6">
         <v>1178.43169415203</v>
       </c>
     </row>
@@ -8011,19 +8019,19 @@
       <c r="C228" s="2">
         <v>38.042007</v>
       </c>
-      <c r="D228" s="7">
+      <c r="D228" s="8">
         <v>11235086</v>
       </c>
-      <c r="E228" s="12">
+      <c r="E228" s="14">
         <v>5935.1</v>
       </c>
       <c r="F228" s="1">
         <v>69475.14735</v>
       </c>
-      <c r="G228" s="1">
+      <c r="G228" s="5">
         <v>708.927688036345</v>
       </c>
-      <c r="H228" s="5">
+      <c r="H228" s="6">
         <v>921.635355764857</v>
       </c>
     </row>
@@ -8037,19 +8045,19 @@
       <c r="C229" s="2">
         <v>38.521468</v>
       </c>
-      <c r="D229" s="24">
+      <c r="D229" s="26">
         <v>438026</v>
       </c>
-      <c r="E229" s="12">
+      <c r="E229" s="14">
         <v>358.62</v>
       </c>
       <c r="F229" s="1">
         <v>4715.06525</v>
       </c>
-      <c r="G229" s="1">
+      <c r="G229" s="5">
         <v>49.0620519713262</v>
       </c>
-      <c r="H229" s="5">
+      <c r="H229" s="6">
         <v>2088.24382354581</v>
       </c>
     </row>
@@ -8063,7 +8071,7 @@
       <c r="C230" s="2">
         <v>36.060798</v>
       </c>
-      <c r="D230" s="7">
+      <c r="D230" s="8">
         <v>4359446</v>
       </c>
       <c r="E230" s="4">
@@ -8072,10 +8080,10 @@
       <c r="F230" s="1">
         <v>39637.8442</v>
       </c>
-      <c r="G230" s="1">
+      <c r="G230" s="5">
         <v>330.461340206186</v>
       </c>
-      <c r="H230" s="5">
+      <c r="H230" s="6">
         <v>954.195389955452</v>
       </c>
     </row>
@@ -8089,19 +8097,19 @@
       <c r="C231" s="2">
         <v>39.733416</v>
       </c>
-      <c r="D231" s="8">
+      <c r="D231" s="9">
         <v>1055706</v>
       </c>
-      <c r="E231" s="12">
+      <c r="E231" s="14">
         <v>657.7</v>
       </c>
       <c r="F231" s="1">
         <v>13151.16625</v>
       </c>
-      <c r="G231" s="1">
+      <c r="G231" s="5">
         <v>6.2809733460257</v>
       </c>
-      <c r="H231" s="5">
+      <c r="H231" s="6">
         <v>857.32400790634</v>
       </c>
     </row>
@@ -8115,19 +8123,19 @@
       <c r="C232" s="2">
         <v>36.545123</v>
       </c>
-      <c r="D232" s="8">
+      <c r="D232" s="9">
         <v>1512110</v>
       </c>
-      <c r="E232" s="12">
+      <c r="E232" s="14">
         <v>497.27</v>
       </c>
       <c r="F232" s="1">
         <v>6060.26865</v>
       </c>
-      <c r="G232" s="1">
+      <c r="G232" s="5">
         <v>75.233096173939</v>
       </c>
-      <c r="H232" s="5">
+      <c r="H232" s="6">
         <v>2276.58616043598</v>
       </c>
     </row>
@@ -8141,19 +8149,19 @@
       <c r="C233" s="2">
         <v>39.77325</v>
       </c>
-      <c r="D233" s="8">
+      <c r="D233" s="9">
         <v>312663</v>
       </c>
-      <c r="E233" s="12">
+      <c r="E233" s="14">
         <v>281.6</v>
       </c>
       <c r="F233" s="1">
         <v>5608.218</v>
       </c>
-      <c r="G233" s="1">
+      <c r="G233" s="5">
         <v>106.529131175468</v>
       </c>
-      <c r="H233" s="5">
+      <c r="H233" s="6">
         <v>10091.4879261364</v>
       </c>
     </row>
@@ -8167,7 +8175,7 @@
       <c r="C234" s="2">
         <v>35.542417</v>
       </c>
-      <c r="D234" s="8">
+      <c r="D234" s="9">
         <v>1848607</v>
       </c>
       <c r="E234" s="4">
@@ -8176,10 +8184,10 @@
       <c r="F234" s="1">
         <v>5912.89685</v>
       </c>
-      <c r="G234" s="1">
+      <c r="G234" s="5">
         <v>166.271541644181</v>
       </c>
-      <c r="H234" s="5">
+      <c r="H234" s="6">
         <v>749.430863575269</v>
       </c>
     </row>
@@ -8193,19 +8201,19 @@
       <c r="C235" s="2">
         <v>33.370174</v>
       </c>
-      <c r="D235" s="8">
+      <c r="D235" s="9">
         <v>2407272</v>
       </c>
-      <c r="E235" s="12">
+      <c r="E235" s="14">
         <v>451.8</v>
       </c>
       <c r="F235" s="1">
         <v>4707.16375</v>
       </c>
-      <c r="G235" s="1">
+      <c r="G235" s="5">
         <v>86.4712094543626</v>
       </c>
-      <c r="H235" s="5">
+      <c r="H235" s="6">
         <v>975.513501549358</v>
       </c>
     </row>
@@ -8219,19 +8227,19 @@
       <c r="C236" s="2">
         <v>38.924766</v>
       </c>
-      <c r="D236" s="8">
+      <c r="D236" s="9">
         <v>1131016</v>
       </c>
-      <c r="E236" s="12">
+      <c r="E236" s="14">
         <v>467.05</v>
       </c>
       <c r="F236" s="1">
         <v>6933.60295</v>
       </c>
-      <c r="G236" s="1">
+      <c r="G236" s="5">
         <v>29.3070066334992</v>
       </c>
-      <c r="H236" s="5">
+      <c r="H236" s="6">
         <v>992.092923669843</v>
       </c>
     </row>
@@ -8245,19 +8253,19 @@
       <c r="C237" s="2">
         <v>35.607947</v>
       </c>
-      <c r="D237" s="8">
+      <c r="D237" s="9">
         <v>2524097</v>
       </c>
-      <c r="E237" s="12">
+      <c r="E237" s="14">
         <v>441.36</v>
       </c>
       <c r="F237" s="1">
         <v>8723.2743</v>
       </c>
-      <c r="G237" s="1">
+      <c r="G237" s="5">
         <v>128.721352440206</v>
       </c>
-      <c r="H237" s="5">
+      <c r="H237" s="6">
         <v>1163.42214971905</v>
       </c>
     </row>
@@ -8271,19 +8279,19 @@
       <c r="C238" s="2">
         <v>34.581514</v>
       </c>
-      <c r="D238" s="8">
+      <c r="D238" s="9">
         <v>2984659</v>
       </c>
-      <c r="E238" s="12">
+      <c r="E238" s="14">
         <v>666.9</v>
       </c>
       <c r="F238" s="1">
         <v>8433.1847</v>
       </c>
-      <c r="G238" s="1">
+      <c r="G238" s="5">
         <v>209.053652728164</v>
       </c>
-      <c r="H238" s="5">
+      <c r="H238" s="6">
         <v>600.031488978857</v>
       </c>
     </row>
@@ -8297,7 +8305,7 @@
       <c r="C239" s="2">
         <v>35.709459</v>
       </c>
-      <c r="D239" s="8">
+      <c r="D239" s="9">
         <v>2179716</v>
       </c>
       <c r="E239" s="4">
@@ -8306,10 +8314,10 @@
       <c r="F239" s="1">
         <v>19449.8014</v>
       </c>
-      <c r="G239" s="1">
+      <c r="G239" s="5">
         <v>80.3819006527271</v>
       </c>
-      <c r="H239" s="5">
+      <c r="H239" s="6">
         <v>584.93500987108</v>
       </c>
     </row>
@@ -8323,19 +8331,19 @@
       <c r="C240" s="2">
         <v>37.92898</v>
       </c>
-      <c r="D240" s="8">
+      <c r="D240" s="9">
         <v>1464955</v>
       </c>
-      <c r="E240" s="12">
+      <c r="E240" s="14">
         <v>526.41</v>
       </c>
       <c r="F240" s="1">
         <v>6332.67675</v>
       </c>
-      <c r="G240" s="1">
+      <c r="G240" s="5">
         <v>45.2887439329768</v>
       </c>
-      <c r="H240" s="5">
+      <c r="H240" s="6">
         <v>943.308447787846</v>
       </c>
     </row>
@@ -8349,19 +8357,19 @@
       <c r="C241" s="2">
         <v>31.467673</v>
       </c>
-      <c r="D241" s="7">
+      <c r="D241" s="8">
         <v>4868243</v>
       </c>
-      <c r="E241" s="12">
+      <c r="E241" s="14">
         <v>3010.08</v>
       </c>
       <c r="F241" s="1">
         <v>28709.1261</v>
       </c>
-      <c r="G241" s="1">
+      <c r="G241" s="5">
         <v>240.430807981035</v>
       </c>
-      <c r="H241" s="5">
+      <c r="H241" s="6">
         <v>383.5924626588</v>
       </c>
     </row>
@@ -8375,19 +8383,19 @@
       <c r="C242" s="2">
         <v>32.435774</v>
       </c>
-      <c r="D242" s="7">
+      <c r="D242" s="8">
         <v>2305657</v>
       </c>
-      <c r="E242" s="12">
+      <c r="E242" s="14">
         <v>1008.01</v>
       </c>
       <c r="F242" s="1">
         <v>8146.75635</v>
       </c>
-      <c r="G242" s="1">
+      <c r="G242" s="5">
         <v>141.286659721797</v>
       </c>
-      <c r="H242" s="5">
+      <c r="H242" s="6">
         <v>593.81256138332</v>
       </c>
     </row>
@@ -8401,7 +8409,7 @@
       <c r="C243" s="2">
         <v>30.572961</v>
       </c>
-      <c r="D243" s="7">
+      <c r="D243" s="8">
         <v>20937757</v>
       </c>
       <c r="E243" s="4">
@@ -8410,10 +8418,10 @@
       <c r="F243" s="1">
         <v>236798.3672</v>
       </c>
-      <c r="G243" s="1">
+      <c r="G243" s="5">
         <v>1460.6039065225</v>
       </c>
-      <c r="H243" s="5">
+      <c r="H243" s="6">
         <v>391.632245282699</v>
       </c>
     </row>
@@ -8427,7 +8435,7 @@
       <c r="C244" s="2">
         <v>31.867853</v>
       </c>
-      <c r="D244" s="7">
+      <c r="D244" s="8">
         <v>2712894</v>
       </c>
       <c r="E244" s="4">
@@ -8436,10 +8444,10 @@
       <c r="F244" s="1">
         <v>4733.81735</v>
       </c>
-      <c r="G244" s="1">
+      <c r="G244" s="5">
         <v>220.686081509802</v>
       </c>
-      <c r="H244" s="5">
+      <c r="H244" s="6">
         <v>458.391895591859</v>
       </c>
     </row>
@@ -8453,19 +8461,19 @@
       <c r="C245" s="2">
         <v>30.837235</v>
       </c>
-      <c r="D245" s="7">
+      <c r="D245" s="8">
         <v>5607565</v>
       </c>
-      <c r="E245" s="13">
+      <c r="E245" s="15">
         <v>2401.1</v>
       </c>
       <c r="F245" s="1">
         <v>36144.0769</v>
       </c>
-      <c r="G245" s="1">
+      <c r="G245" s="5">
         <v>449.360125010017</v>
       </c>
-      <c r="H245" s="5">
+      <c r="H245" s="6">
         <v>328.977968431136</v>
       </c>
     </row>
@@ -8479,7 +8487,7 @@
       <c r="C246" s="2">
         <v>31.209278</v>
       </c>
-      <c r="D246" s="25">
+      <c r="D246" s="27">
         <v>5385422</v>
       </c>
       <c r="E246" s="4">
@@ -8488,10 +8496,10 @@
       <c r="F246" s="1">
         <v>17767.74485</v>
       </c>
-      <c r="G246" s="1">
+      <c r="G246" s="5">
         <v>324.677277385905</v>
       </c>
-      <c r="H246" s="5">
+      <c r="H246" s="6">
         <v>432.567758995184</v>
       </c>
     </row>
@@ -8508,16 +8516,16 @@
       <c r="D247" s="3">
         <v>2814196</v>
       </c>
-      <c r="E247" s="12">
+      <c r="E247" s="14">
         <v>1403.18</v>
       </c>
       <c r="F247" s="1">
         <v>17475.1611</v>
       </c>
-      <c r="G247" s="1">
+      <c r="G247" s="5">
         <v>528.785419015408</v>
       </c>
-      <c r="H247" s="5">
+      <c r="H247" s="6">
         <v>361.239470345929</v>
       </c>
     </row>
@@ -8531,19 +8539,19 @@
       <c r="C248" s="2">
         <v>31.127449</v>
       </c>
-      <c r="D248" s="7">
+      <c r="D248" s="8">
         <v>3456161</v>
       </c>
-      <c r="E248" s="12">
+      <c r="E248" s="14">
         <v>2404.1</v>
       </c>
       <c r="F248" s="1">
         <v>27568.2576</v>
       </c>
-      <c r="G248" s="1">
+      <c r="G248" s="5">
         <v>584.699881576721</v>
       </c>
-      <c r="H248" s="5">
+      <c r="H248" s="6">
         <v>534.805124578844</v>
       </c>
     </row>
@@ -8560,16 +8568,16 @@
       <c r="D249" s="3">
         <v>3254883</v>
       </c>
-      <c r="E249" s="12">
+      <c r="E249" s="14">
         <v>1301.6</v>
       </c>
       <c r="F249" s="1">
         <v>14712.99535</v>
       </c>
-      <c r="G249" s="1">
+      <c r="G249" s="5">
         <v>513.95594504974</v>
       </c>
-      <c r="H249" s="5">
+      <c r="H249" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8586,16 +8594,16 @@
       <c r="D250" s="3">
         <v>2308631</v>
       </c>
-      <c r="E250" s="12">
+      <c r="E250" s="14">
         <v>807.5</v>
       </c>
       <c r="F250" s="1">
         <v>9921.46725</v>
       </c>
-      <c r="G250" s="1">
+      <c r="G250" s="5">
         <v>401.710631633896</v>
       </c>
-      <c r="H250" s="5">
+      <c r="H250" s="6">
         <v>345.704024767802</v>
       </c>
     </row>
@@ -8609,7 +8617,7 @@
       <c r="C251" s="2">
         <v>29.58021</v>
       </c>
-      <c r="D251" s="7">
+      <c r="D251" s="8">
         <v>3140678</v>
       </c>
       <c r="E251" s="4">
@@ -8618,10 +8626,10 @@
       <c r="F251" s="1">
         <v>12421.81775</v>
       </c>
-      <c r="G251" s="1">
+      <c r="G251" s="5">
         <v>583.118826587449</v>
       </c>
-      <c r="H251" s="5">
+      <c r="H251" s="6">
         <v>550.285152945671</v>
       </c>
     </row>
@@ -8635,19 +8643,19 @@
       <c r="C252" s="2">
         <v>26.582417</v>
       </c>
-      <c r="D252" s="7">
+      <c r="D252" s="8">
         <v>1212203</v>
       </c>
-      <c r="E252" s="12">
+      <c r="E252" s="14">
         <v>1040.82</v>
       </c>
       <c r="F252" s="1">
         <v>7731.51385</v>
       </c>
-      <c r="G252" s="1">
+      <c r="G252" s="5">
         <v>163.501888319396</v>
       </c>
-      <c r="H252" s="5">
+      <c r="H252" s="6">
         <v>1299.7550008647</v>
       </c>
     </row>
@@ -8661,19 +8669,19 @@
       <c r="C253" s="2">
         <v>29.552275</v>
       </c>
-      <c r="D253" s="7">
+      <c r="D253" s="8">
         <v>3160168</v>
       </c>
-      <c r="E253" s="12">
+      <c r="E253" s="14">
         <v>2003.43</v>
       </c>
       <c r="F253" s="1">
         <v>17585.1859</v>
       </c>
-      <c r="G253" s="1">
+      <c r="G253" s="5">
         <v>248.382299772066</v>
       </c>
-      <c r="H253" s="5">
+      <c r="H253" s="6">
         <v>1082.20152438568</v>
       </c>
     </row>
@@ -8687,19 +8695,19 @@
       <c r="C254" s="2">
         <v>28.87098</v>
       </c>
-      <c r="D254" s="7">
+      <c r="D254" s="8">
         <v>4254149</v>
       </c>
-      <c r="E254" s="12">
+      <c r="E254" s="14">
         <v>2157.2</v>
       </c>
       <c r="F254" s="1">
         <v>13897.7336</v>
       </c>
-      <c r="G254" s="1">
+      <c r="G254" s="5">
         <v>347.788505559189</v>
       </c>
-      <c r="H254" s="5">
+      <c r="H254" s="6">
         <v>446.797237159281</v>
       </c>
     </row>
@@ -8716,16 +8724,16 @@
       <c r="D255" s="3">
         <v>2955219</v>
       </c>
-      <c r="E255" s="12">
+      <c r="E255" s="14">
         <v>1423.74</v>
       </c>
       <c r="F255" s="1">
         <v>10710.10215</v>
       </c>
-      <c r="G255" s="1">
+      <c r="G255" s="5">
         <v>413.896218487395</v>
       </c>
-      <c r="H255" s="5">
+      <c r="H255" s="6">
         <v>862.660317192746</v>
       </c>
     </row>
@@ -8739,19 +8747,19 @@
       <c r="C256" s="2">
         <v>29.33924</v>
       </c>
-      <c r="D256" s="7">
+      <c r="D256" s="8">
         <v>2489256</v>
       </c>
-      <c r="E256" s="12">
+      <c r="E256" s="14">
         <v>1458.44</v>
       </c>
       <c r="F256" s="1">
         <v>6255.3667</v>
       </c>
-      <c r="G256" s="1">
+      <c r="G256" s="5">
         <v>568.193563113444</v>
       </c>
-      <c r="H256" s="5">
+      <c r="H256" s="6">
         <v>292.711390252599</v>
       </c>
     </row>
@@ -8768,16 +8776,16 @@
       <c r="D257" s="3">
         <v>4588804</v>
       </c>
-      <c r="E257" s="12">
+      <c r="E257" s="14">
         <v>2802.1</v>
       </c>
       <c r="F257" s="1">
         <v>13265.23365</v>
       </c>
-      <c r="G257" s="1">
+      <c r="G257" s="5">
         <v>345.776806570718</v>
       </c>
-      <c r="H257" s="5">
+      <c r="H257" s="6">
         <v>363.881017808073</v>
       </c>
     </row>
@@ -8794,16 +8802,16 @@
       <c r="D258" s="3">
         <v>1434603</v>
       </c>
-      <c r="E258" s="12">
+      <c r="E258" s="14">
         <v>754.59</v>
       </c>
       <c r="F258" s="1">
         <v>6499.83545</v>
       </c>
-      <c r="G258" s="1">
+      <c r="G258" s="5">
         <v>95.3478000797554</v>
       </c>
-      <c r="H258" s="5">
+      <c r="H258" s="6">
         <v>1491.00836215693</v>
       </c>
     </row>
@@ -8820,16 +8828,16 @@
       <c r="D259" s="3">
         <v>13866000</v>
       </c>
-      <c r="E259" s="13">
+      <c r="E259" s="15">
         <v>14083.73</v>
       </c>
-      <c r="F259" s="20">
+      <c r="F259" s="22">
         <v>300041.4605</v>
       </c>
-      <c r="G259" s="1">
+      <c r="G259" s="5">
         <v>1158.68638756581</v>
       </c>
-      <c r="H259" s="5">
+      <c r="H259" s="6">
         <v>623.721982741788</v>
       </c>
     </row>
@@ -8849,13 +8857,13 @@
       <c r="E260" s="4">
         <v>36102.6</v>
       </c>
-      <c r="F260" s="20">
+      <c r="F260" s="22">
         <v>324591.4769</v>
       </c>
-      <c r="G260" s="1">
+      <c r="G260" s="5">
         <v>1334.13132236441</v>
       </c>
-      <c r="H260" s="5">
+      <c r="H260" s="6">
         <v>323.078227052899</v>
       </c>
     </row>
@@ -8869,19 +8877,19 @@
       <c r="C261" s="2">
         <v>25.831139</v>
       </c>
-      <c r="D261" s="7">
+      <c r="D261" s="8">
         <v>8970014</v>
       </c>
-      <c r="E261" s="12">
+      <c r="E261" s="14">
         <v>3645.2</v>
       </c>
       <c r="F261" s="1">
         <v>43232.88935</v>
       </c>
-      <c r="G261" s="1">
+      <c r="G261" s="5">
         <v>227.879328303229</v>
       </c>
-      <c r="H261" s="5">
+      <c r="H261" s="6">
         <v>573.226160430155</v>
       </c>
     </row>
@@ -8895,19 +8903,19 @@
       <c r="C262" s="2">
         <v>27.658721</v>
       </c>
-      <c r="D262" s="6">
+      <c r="D262" s="7">
         <v>1804805</v>
       </c>
-      <c r="E262" s="12">
+      <c r="E262" s="14">
         <v>963.6</v>
       </c>
       <c r="F262" s="1">
         <v>3884.60285</v>
       </c>
-      <c r="G262" s="1">
+      <c r="G262" s="5">
         <v>471.105455494649</v>
       </c>
-      <c r="H262" s="5">
+      <c r="H262" s="6">
         <v>794.996886674969</v>
       </c>
     </row>
@@ -8921,19 +8929,19 @@
       <c r="C263" s="2">
         <v>29.2744</v>
       </c>
-      <c r="D263" s="7">
+      <c r="D263" s="8">
         <v>1618979</v>
       </c>
-      <c r="E263" s="12">
+      <c r="E263" s="14">
         <v>957.14</v>
       </c>
       <c r="F263" s="1">
         <v>10998.6237</v>
       </c>
-      <c r="G263" s="1">
+      <c r="G263" s="5">
         <v>307.673698213607</v>
       </c>
-      <c r="H263" s="5">
+      <c r="H263" s="6">
         <v>630.437553544936</v>
       </c>
     </row>
@@ -8947,19 +8955,19 @@
       <c r="C264" s="2">
         <v>27.816245</v>
       </c>
-      <c r="D264" s="7">
+      <c r="D264" s="8">
         <v>5007702</v>
       </c>
-      <c r="E264" s="12">
+      <c r="E264" s="14">
         <v>2789.87</v>
       </c>
       <c r="F264" s="1">
         <v>19842.76425</v>
       </c>
-      <c r="G264" s="1">
+      <c r="G264" s="5">
         <v>268.236220472441</v>
       </c>
-      <c r="H264" s="5">
+      <c r="H264" s="6">
         <v>726.874012050741</v>
       </c>
     </row>
@@ -8973,7 +8981,7 @@
       <c r="C265" s="2">
         <v>27.091243</v>
       </c>
-      <c r="D265" s="7">
+      <c r="D265" s="8">
         <v>4469176</v>
       </c>
       <c r="E265" s="4">
@@ -8982,10 +8990,10 @@
       <c r="F265" s="1">
         <v>13309.23785</v>
       </c>
-      <c r="G265" s="1">
+      <c r="G265" s="5">
         <v>176.759057111217</v>
       </c>
-      <c r="H265" s="5">
+      <c r="H265" s="6">
         <v>549.772919039298</v>
       </c>
     </row>
@@ -8999,19 +9007,19 @@
       <c r="C266" s="2">
         <v>27.818553</v>
       </c>
-      <c r="D266" s="7">
+      <c r="D266" s="8">
         <v>1202499</v>
       </c>
-      <c r="E266" s="12">
+      <c r="E266" s="14">
         <v>1001.33</v>
       </c>
       <c r="F266" s="1">
         <v>5896.9604</v>
       </c>
-      <c r="G266" s="1">
+      <c r="G266" s="5">
         <v>378.382315921963</v>
       </c>
-      <c r="H266" s="5">
+      <c r="H266" s="6">
         <v>908.044301079564</v>
       </c>
     </row>
@@ -9025,19 +9033,19 @@
       <c r="C267" s="2">
         <v>28.45513</v>
       </c>
-      <c r="D267" s="7">
+      <c r="D267" s="8">
         <v>6491088</v>
       </c>
-      <c r="E267" s="12">
+      <c r="E267" s="14">
         <v>2624.3</v>
       </c>
       <c r="F267" s="1">
         <v>19391.4462</v>
       </c>
-      <c r="G267" s="1">
+      <c r="G267" s="5">
         <v>285.234784901349</v>
       </c>
-      <c r="H267" s="5">
+      <c r="H267" s="6">
         <v>647.166863544564</v>
       </c>
     </row>
@@ -9051,19 +9059,19 @@
       <c r="C268" s="2">
         <v>28.682976</v>
       </c>
-      <c r="D268" s="6">
+      <c r="D268" s="7">
         <v>6255007</v>
       </c>
-      <c r="E268" s="12">
+      <c r="E268" s="14">
         <v>5745.51</v>
       </c>
       <c r="F268" s="1">
         <v>64675.64255</v>
       </c>
-      <c r="G268" s="1">
+      <c r="G268" s="5">
         <v>869.354690757471</v>
       </c>
-      <c r="H268" s="5">
+      <c r="H268" s="6">
         <v>430.241875829996</v>
       </c>
     </row>
@@ -9077,19 +9085,19 @@
       <c r="C269" s="2">
         <v>29.66116</v>
       </c>
-      <c r="D269" s="6">
+      <c r="D269" s="7">
         <v>4600276</v>
       </c>
-      <c r="E269" s="12">
+      <c r="E269" s="14">
         <v>3240.5</v>
       </c>
       <c r="F269" s="1">
         <v>24920.4441</v>
       </c>
-      <c r="G269" s="1">
+      <c r="G269" s="5">
         <v>241.142527651098</v>
       </c>
-      <c r="H269" s="5">
+      <c r="H269" s="6">
         <v>659.32232680142</v>
       </c>
     </row>
@@ -9103,19 +9111,20 @@
       <c r="C270" s="2">
         <v>28.272092</v>
       </c>
-      <c r="D270" s="7">
+      <c r="D270" s="8">
         <v>1154223</v>
       </c>
-      <c r="E270" s="12">
+      <c r="E270" s="14">
         <v>982.66</v>
       </c>
       <c r="F270" s="1">
         <v>5734.14995</v>
       </c>
-      <c r="G270" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H270" s="5">
+      <c r="G270" s="5">
+        <f>L13</f>
+        <v>0</v>
+      </c>
+      <c r="H270" s="6">
         <v>528.17047605479</v>
       </c>
     </row>
@@ -9129,19 +9138,19 @@
       <c r="C271" s="2">
         <v>27.948979</v>
       </c>
-      <c r="D271" s="7">
+      <c r="D271" s="8">
         <v>3614866</v>
       </c>
-      <c r="E271" s="12">
+      <c r="E271" s="14">
         <v>1572.51</v>
       </c>
       <c r="F271" s="1">
         <v>14735.14705</v>
       </c>
-      <c r="G271" s="1">
+      <c r="G271" s="5">
         <v>192.290334592266</v>
       </c>
-      <c r="H271" s="5">
+      <c r="H271" s="6">
         <v>599.466458082937</v>
       </c>
     </row>
@@ -9155,19 +9164,19 @@
       <c r="C272" s="2">
         <v>43.838132</v>
       </c>
-      <c r="D272" s="7">
+      <c r="D272" s="8">
         <v>3623713</v>
       </c>
-      <c r="E272" s="26">
+      <c r="E272" s="28">
         <v>1452.6</v>
       </c>
       <c r="F272" s="1">
         <v>22669.39355</v>
       </c>
-      <c r="G272" s="1">
+      <c r="G272" s="5">
         <v>130.768034354588</v>
       </c>
-      <c r="H272" s="5">
+      <c r="H272" s="6">
         <v>1083.12336500069</v>
       </c>
     </row>
@@ -9181,19 +9190,19 @@
       <c r="C273" s="2">
         <v>45.620131</v>
       </c>
-      <c r="D273" s="7">
+      <c r="D273" s="8">
         <v>1551378</v>
       </c>
-      <c r="E273" s="12">
+      <c r="E273" s="14">
         <v>510.18</v>
       </c>
       <c r="F273" s="1">
         <v>7433.8818</v>
       </c>
-      <c r="G273" s="1">
+      <c r="G273" s="5">
         <v>60.2266392328895</v>
       </c>
-      <c r="H273" s="5">
+      <c r="H273" s="6">
         <v>973.752401113333</v>
       </c>
     </row>
@@ -9207,19 +9216,19 @@
       <c r="C274" s="2">
         <v>45.14191</v>
       </c>
-      <c r="D274" s="6">
+      <c r="D274" s="7">
         <v>2252994</v>
       </c>
-      <c r="E274" s="12">
+      <c r="E274" s="14">
         <v>752.88</v>
       </c>
       <c r="F274" s="1">
         <v>13406.79155</v>
       </c>
-      <c r="G274" s="1">
+      <c r="G274" s="5">
         <v>106.423901747756</v>
       </c>
-      <c r="H274" s="5">
+      <c r="H274" s="6">
         <v>795.327276591223</v>
       </c>
     </row>
@@ -9233,19 +9242,19 @@
       <c r="C275" s="2">
         <v>42.887961</v>
       </c>
-      <c r="D275" s="7">
+      <c r="D275" s="8">
         <v>996903</v>
       </c>
-      <c r="E275" s="12">
+      <c r="E275" s="14">
         <v>429.9</v>
       </c>
       <c r="F275" s="1">
         <v>6733.906</v>
       </c>
-      <c r="G275" s="1">
+      <c r="G275" s="5">
         <v>193.95</v>
       </c>
-      <c r="H275" s="5">
+      <c r="H275" s="6">
         <v>794.833682251686</v>
       </c>
     </row>
@@ -9259,19 +9268,19 @@
       <c r="C276" s="2">
         <v>43.816996</v>
       </c>
-      <c r="D276" s="6">
+      <c r="D276" s="7">
         <v>9066906</v>
       </c>
-      <c r="E276" s="12">
+      <c r="E276" s="14">
         <v>6638.03</v>
       </c>
       <c r="F276" s="1">
         <v>109873.8497</v>
       </c>
-      <c r="G276" s="1">
+      <c r="G276" s="5">
         <v>440.26930173837</v>
       </c>
-      <c r="H276" s="5">
+      <c r="H276" s="6">
         <v>382.803181064262</v>
       </c>
     </row>
@@ -9285,19 +9294,19 @@
       <c r="C277" s="2">
         <v>41.728312</v>
       </c>
-      <c r="D277" s="18">
+      <c r="D277" s="20">
         <v>1302778</v>
       </c>
-      <c r="E277" s="26">
+      <c r="E277" s="28">
         <v>531.7</v>
       </c>
       <c r="F277" s="1">
         <v>11784.2498</v>
       </c>
-      <c r="G277" s="1">
+      <c r="G277" s="5">
         <v>83.4472200871125</v>
       </c>
-      <c r="H277" s="5">
+      <c r="H277" s="6">
         <v>1049.64265563288</v>
       </c>
     </row>
@@ -9311,19 +9320,19 @@
       <c r="C278" s="2">
         <v>43.166764</v>
       </c>
-      <c r="D278" s="6">
+      <c r="D278" s="7">
         <v>1814733</v>
       </c>
-      <c r="E278" s="12">
+      <c r="E278" s="14">
         <v>526.6</v>
       </c>
       <c r="F278" s="1">
         <v>16122.40795</v>
       </c>
-      <c r="G278" s="1">
+      <c r="G278" s="5">
         <v>126.18085106383</v>
       </c>
-      <c r="H278" s="5">
+      <c r="H278" s="6">
         <v>1299.12457273073</v>
       </c>
     </row>
@@ -9337,19 +9346,19 @@
       <c r="C279" s="2">
         <v>42.909426</v>
       </c>
-      <c r="D279" s="8">
+      <c r="D279" s="9">
         <v>1941700</v>
       </c>
-      <c r="E279" s="12">
+      <c r="E279" s="14">
         <v>726.86</v>
       </c>
       <c r="F279" s="1">
         <v>15679.4573</v>
       </c>
-      <c r="G279" s="1">
+      <c r="G279" s="5">
         <v>44.8429561200924</v>
       </c>
-      <c r="H279" s="5">
+      <c r="H279" s="6">
         <v>771.26269157747</v>
       </c>
     </row>
@@ -9363,19 +9372,19 @@
       <c r="C280" s="2">
         <v>41.944132</v>
       </c>
-      <c r="D280" s="6">
+      <c r="D280" s="7">
         <v>951866</v>
       </c>
-      <c r="E280" s="12">
+      <c r="E280" s="14">
         <v>509.42</v>
       </c>
       <c r="F280" s="1">
         <v>3221.68455</v>
       </c>
-      <c r="G280" s="1">
+      <c r="G280" s="5">
         <v>54.3768066266781</v>
       </c>
-      <c r="H280" s="5">
+      <c r="H280" s="6">
         <v>632.354442306937</v>
       </c>
     </row>
@@ -9389,19 +9398,19 @@
       <c r="C281" s="2">
         <v>37.857094</v>
       </c>
-      <c r="D281" s="6">
+      <c r="D281" s="7">
         <v>1318505</v>
       </c>
-      <c r="E281" s="12">
+      <c r="E281" s="14">
         <v>742.2</v>
       </c>
       <c r="F281" s="1">
         <v>7948.23675</v>
       </c>
-      <c r="G281" s="1">
+      <c r="G281" s="5">
         <v>289.209256415881</v>
       </c>
-      <c r="H281" s="5">
+      <c r="H281" s="6">
         <v>1114.7669091889</v>
       </c>
     </row>
@@ -9415,7 +9424,7 @@
       <c r="C282" s="2">
         <v>37.870451</v>
       </c>
-      <c r="D282" s="7">
+      <c r="D282" s="8">
         <v>5304061</v>
       </c>
       <c r="E282" s="4">
@@ -9424,10 +9433,10 @@
       <c r="F282" s="1">
         <v>90975.96375</v>
       </c>
-      <c r="G282" s="1">
+      <c r="G282" s="5">
         <v>759.02418431597</v>
       </c>
-      <c r="H282" s="5">
+      <c r="H282" s="6">
         <v>693.315836995124</v>
       </c>
     </row>
@@ -9441,19 +9450,19 @@
       <c r="C283" s="2">
         <v>37.518996</v>
       </c>
-      <c r="D283" s="7">
+      <c r="D283" s="8">
         <v>3398431</v>
       </c>
-      <c r="E283" s="12">
+      <c r="E283" s="14">
         <v>1538.04</v>
       </c>
       <c r="F283" s="1">
         <v>18429.5869</v>
       </c>
-      <c r="G283" s="1">
+      <c r="G283" s="5">
         <v>160.008992890437</v>
       </c>
-      <c r="H283" s="5">
+      <c r="H283" s="6">
         <v>1395.32456893189</v>
       </c>
     </row>
@@ -9467,19 +9476,19 @@
       <c r="C284" s="2">
         <v>37.688006</v>
       </c>
-      <c r="D284" s="6">
+      <c r="D284" s="7">
         <v>3379498</v>
       </c>
-      <c r="E284" s="12">
+      <c r="E284" s="14">
         <v>1468.8</v>
       </c>
       <c r="F284" s="1">
         <v>29571.2386</v>
       </c>
-      <c r="G284" s="1">
+      <c r="G284" s="5">
         <v>206.167520741825</v>
       </c>
-      <c r="H284" s="5">
+      <c r="H284" s="6">
         <v>1460.28458605664</v>
       </c>
     </row>
@@ -9493,19 +9502,19 @@
       <c r="C285" s="2">
         <v>36.195142</v>
       </c>
-      <c r="D285" s="7">
+      <c r="D285" s="8">
         <v>3180884</v>
       </c>
-      <c r="E285" s="12">
+      <c r="E285" s="14">
         <v>1711.6</v>
       </c>
       <c r="F285" s="1">
         <v>28866.4577</v>
       </c>
-      <c r="G285" s="1">
+      <c r="G285" s="5">
         <v>227.938659978502</v>
       </c>
-      <c r="H285" s="5">
+      <c r="H285" s="6">
         <v>1041.82051881281</v>
       </c>
     </row>
@@ -9519,19 +9528,19 @@
       <c r="C286" s="2">
         <v>35.491315</v>
       </c>
-      <c r="D286" s="6">
+      <c r="D286" s="7">
         <v>2194545</v>
       </c>
-      <c r="E286" s="12">
+      <c r="E286" s="14">
         <v>1425.7</v>
       </c>
       <c r="F286" s="1">
         <v>21695.8188</v>
       </c>
-      <c r="G286" s="1">
+      <c r="G286" s="5">
         <v>232.842970822281</v>
       </c>
-      <c r="H286" s="5">
+      <c r="H286" s="6">
         <v>1480.81784386617</v>
       </c>
     </row>
@@ -9545,19 +9554,19 @@
       <c r="C287" s="2">
         <v>35.02667</v>
       </c>
-      <c r="D287" s="6">
+      <c r="D287" s="7">
         <v>4774508</v>
       </c>
-      <c r="E287" s="12">
+      <c r="E287" s="14">
         <v>1643.6</v>
       </c>
       <c r="F287" s="1">
         <v>18962.9042</v>
       </c>
-      <c r="G287" s="1">
+      <c r="G287" s="5">
         <v>336.635972643305</v>
       </c>
-      <c r="H287" s="5">
+      <c r="H287" s="6">
         <v>1839.5150888294</v>
       </c>
     </row>
@@ -9571,19 +9580,19 @@
       <c r="C288" s="2">
         <v>36.088581</v>
       </c>
-      <c r="D288" s="7">
+      <c r="D288" s="8">
         <v>3976481</v>
       </c>
-      <c r="E288" s="12">
+      <c r="E288" s="14">
         <v>1505.2</v>
       </c>
       <c r="F288" s="1">
         <v>19261.5659</v>
       </c>
-      <c r="G288" s="1">
+      <c r="G288" s="5">
         <v>196.127299630086</v>
       </c>
-      <c r="H288" s="5">
+      <c r="H288" s="6">
         <v>1407.96970502259</v>
       </c>
     </row>
@@ -9597,19 +9606,19 @@
       <c r="C289" s="2">
         <v>38.415958</v>
       </c>
-      <c r="D289" s="7">
+      <c r="D289" s="8">
         <v>2689668</v>
       </c>
-      <c r="E289" s="12">
+      <c r="E289" s="14">
         <v>1034.6</v>
       </c>
       <c r="F289" s="1">
         <v>16282.86005</v>
       </c>
-      <c r="G289" s="1">
+      <c r="G289" s="5">
         <v>106.58059914408</v>
       </c>
-      <c r="H289" s="5">
+      <c r="H289" s="6">
         <v>1278.19543785038</v>
       </c>
     </row>
@@ -9623,19 +9632,19 @@
       <c r="C290" s="2">
         <v>39.331734</v>
       </c>
-      <c r="D290" s="6">
+      <c r="D290" s="7">
         <v>1593444</v>
       </c>
-      <c r="E290" s="12">
+      <c r="E290" s="14">
         <v>1100.5</v>
       </c>
       <c r="F290" s="1">
         <v>19545.59115</v>
       </c>
-      <c r="G290" s="1">
+      <c r="G290" s="5">
         <v>149.9712</v>
       </c>
-      <c r="H290" s="5">
+      <c r="H290" s="6">
         <v>802.40345297592</v>
       </c>
     </row>
@@ -9649,19 +9658,19 @@
       <c r="C291" s="2">
         <v>40.09711</v>
       </c>
-      <c r="D291" s="7">
+      <c r="D291" s="8">
         <v>3105591</v>
       </c>
-      <c r="E291" s="12">
+      <c r="E291" s="14">
         <v>1369.9</v>
       </c>
       <c r="F291" s="1">
         <v>36682.00865</v>
       </c>
-      <c r="G291" s="1">
+      <c r="G291" s="5">
         <v>220.944151963574</v>
       </c>
-      <c r="H291" s="5">
+      <c r="H291" s="6">
         <v>908.507920286152</v>
       </c>
     </row>
@@ -9675,7 +9684,7 @@
       <c r="C292" s="2">
         <v>26.855165</v>
       </c>
-      <c r="D292" s="8">
+      <c r="D292" s="9">
         <v>1253878</v>
       </c>
       <c r="E292" s="4">
@@ -9684,10 +9693,10 @@
       <c r="F292" s="1">
         <v>10977.7467</v>
       </c>
-      <c r="G292" s="1">
+      <c r="G292" s="5">
         <v>61.0040867957575</v>
       </c>
-      <c r="H292" s="5">
+      <c r="H292" s="6">
         <v>801.203315455875</v>
       </c>
     </row>
@@ -9701,19 +9710,19 @@
       <c r="C293" s="2">
         <v>27.338185</v>
       </c>
-      <c r="D293" s="8">
+      <c r="D293" s="9">
         <v>5092611</v>
       </c>
-      <c r="E293" s="12">
+      <c r="E293" s="14">
         <v>1288.74</v>
       </c>
       <c r="F293" s="1">
         <v>16842.106</v>
       </c>
-      <c r="G293" s="1">
+      <c r="G293" s="5">
         <v>226.953562993003</v>
       </c>
-      <c r="H293" s="5">
+      <c r="H293" s="6">
         <v>1119.32119744867</v>
       </c>
     </row>
@@ -9727,19 +9736,19 @@
       <c r="C294" s="2">
         <v>24.346786</v>
       </c>
-      <c r="D294" s="7">
+      <c r="D294" s="8">
         <v>2249502</v>
       </c>
-      <c r="E294" s="12">
+      <c r="E294" s="14">
         <v>2058.1</v>
       </c>
       <c r="F294" s="1">
         <v>15516.2505</v>
       </c>
-      <c r="G294" s="1">
+      <c r="G294" s="5">
         <v>150.548922500335</v>
       </c>
-      <c r="H294" s="5">
+      <c r="H294" s="6">
         <v>704.873912832224</v>
       </c>
     </row>
@@ -9753,19 +9762,19 @@
       <c r="C295" s="2">
         <v>25.490866</v>
       </c>
-      <c r="D295" s="7">
+      <c r="D295" s="8">
         <v>5765775</v>
       </c>
-      <c r="E295" s="12">
+      <c r="E295" s="14">
         <v>2959.35</v>
       </c>
       <c r="F295" s="1">
         <v>36921.72605</v>
       </c>
-      <c r="G295" s="1">
+      <c r="G295" s="5">
         <v>199.26645930534</v>
       </c>
-      <c r="H295" s="5">
+      <c r="H295" s="6">
         <v>1004.31209556153</v>
       </c>
     </row>
@@ -9779,19 +9788,19 @@
       <c r="C296" s="2">
         <v>25.112018</v>
       </c>
-      <c r="D296" s="7">
+      <c r="D296" s="8">
         <v>2431211</v>
       </c>
-      <c r="E296" s="12">
+      <c r="E296" s="14">
         <v>1052.6</v>
       </c>
       <c r="F296" s="1">
         <v>11649.52225</v>
       </c>
-      <c r="G296" s="1">
+      <c r="G296" s="5">
         <v>123.807659011051</v>
       </c>
-      <c r="H296" s="5">
+      <c r="H296" s="6">
         <v>766.705301159035</v>
       </c>
     </row>
@@ -9805,19 +9814,19 @@
       <c r="C297" s="2">
         <v>22.825229</v>
       </c>
-      <c r="D297" s="8">
+      <c r="D297" s="9">
         <v>2404954</v>
       </c>
-      <c r="E297" s="12">
+      <c r="E297" s="14">
         <v>945.42</v>
       </c>
       <c r="F297" s="1">
         <v>7556.0967</v>
       </c>
-      <c r="G297" s="1">
+      <c r="G297" s="5">
         <v>54.3295983373244</v>
       </c>
-      <c r="H297" s="5">
+      <c r="H297" s="6">
         <v>512.117365826828</v>
       </c>
     </row>
@@ -9831,19 +9840,19 @@
       <c r="C298" s="2">
         <v>23.884175</v>
       </c>
-      <c r="D298" s="8">
+      <c r="D298" s="9">
         <v>2257991</v>
       </c>
-      <c r="E298" s="12">
+      <c r="E298" s="14">
         <v>821.32</v>
       </c>
       <c r="F298" s="1">
         <v>6133.20245</v>
       </c>
-      <c r="G298" s="1">
+      <c r="G298" s="5">
         <v>95.5965707027942</v>
       </c>
-      <c r="H298" s="5">
+      <c r="H298" s="6">
         <v>407.862952320655</v>
       </c>
     </row>
@@ -9857,23 +9866,24 @@
       <c r="C299" s="2">
         <v>24.88149</v>
       </c>
-      <c r="D299" s="7">
+      <c r="D299" s="8">
         <v>8460088</v>
       </c>
-      <c r="E299" s="12">
+      <c r="E299" s="14">
         <v>6733.79</v>
       </c>
       <c r="F299" s="1">
         <v>106575.8164</v>
       </c>
-      <c r="G299" s="1">
+      <c r="G299" s="5">
         <v>402.612097273117</v>
       </c>
-      <c r="H299" s="5">
+      <c r="H299" s="6">
         <v>558.93026067044</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H299"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
